--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3D79A2E320530E07432D4CA57DEC0C77787897F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42933871-8513-4CE8-A5C5-C70C4BB31C61}"/>
   <bookViews>
-    <workbookView xWindow="-16308" yWindow="-15180" windowWidth="16416" windowHeight="28296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="272">
   <si>
     <t>Timestamp</t>
   </si>
@@ -41,13 +35,808 @@
   </si>
   <si>
     <t>Link Compras.gov</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:26:46</t>
+  </si>
+  <si>
+    <t>09/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>12/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 16:00</t>
+  </si>
+  <si>
+    <t>08/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>08/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>04/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>05/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>03/09/2025 - 09:15</t>
+  </si>
+  <si>
+    <t>03/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>05/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>03/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>02/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>03/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>02/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>03/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>02/09/2025 - 12:30</t>
+  </si>
+  <si>
+    <t>02/09/2025 - 11:00</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 13:00</t>
+  </si>
+  <si>
+    <t>04/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>01/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>03/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>02/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>02/09/2025 - 14:00</t>
+  </si>
+  <si>
+    <t>01/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>153164</t>
+  </si>
+  <si>
+    <t>983495</t>
+  </si>
+  <si>
+    <t>153010</t>
+  </si>
+  <si>
+    <t>987427</t>
+  </si>
+  <si>
+    <t>179087</t>
+  </si>
+  <si>
+    <t>160237</t>
+  </si>
+  <si>
+    <t>929994</t>
+  </si>
+  <si>
+    <t>926809</t>
+  </si>
+  <si>
+    <t>926196</t>
+  </si>
+  <si>
+    <t>986843</t>
+  </si>
+  <si>
+    <t>102328</t>
+  </si>
+  <si>
+    <t>930593</t>
+  </si>
+  <si>
+    <t>160363</t>
+  </si>
+  <si>
+    <t>930622</t>
+  </si>
+  <si>
+    <t>788310</t>
+  </si>
+  <si>
+    <t>90147</t>
+  </si>
+  <si>
+    <t>389295</t>
+  </si>
+  <si>
+    <t>389209</t>
+  </si>
+  <si>
+    <t>380128</t>
+  </si>
+  <si>
+    <t>989301</t>
+  </si>
+  <si>
+    <t>925457</t>
+  </si>
+  <si>
+    <t>926764</t>
+  </si>
+  <si>
+    <t>389320</t>
+  </si>
+  <si>
+    <t>983389</t>
+  </si>
+  <si>
+    <t>987425</t>
+  </si>
+  <si>
+    <t>927658</t>
+  </si>
+  <si>
+    <t>927996</t>
+  </si>
+  <si>
+    <t>390105</t>
+  </si>
+  <si>
+    <t>380123</t>
+  </si>
+  <si>
+    <t>120016</t>
+  </si>
+  <si>
+    <t>158125</t>
+  </si>
+  <si>
+    <t>926097</t>
+  </si>
+  <si>
+    <t>153032</t>
+  </si>
+  <si>
+    <t>160130</t>
+  </si>
+  <si>
+    <t>179085</t>
+  </si>
+  <si>
+    <t>120631</t>
+  </si>
+  <si>
+    <t>156956</t>
+  </si>
+  <si>
+    <t>928239</t>
+  </si>
+  <si>
+    <t>930865</t>
+  </si>
+  <si>
+    <t>980403</t>
+  </si>
+  <si>
+    <t>980107</t>
+  </si>
+  <si>
+    <t>981385</t>
+  </si>
+  <si>
+    <t>989403</t>
+  </si>
+  <si>
+    <t>984865</t>
+  </si>
+  <si>
+    <t>985693</t>
+  </si>
+  <si>
+    <t>926150</t>
+  </si>
+  <si>
+    <t>925006</t>
+  </si>
+  <si>
+    <t>985867</t>
+  </si>
+  <si>
+    <t>987805</t>
+  </si>
+  <si>
+    <t>928591</t>
+  </si>
+  <si>
+    <t>160521</t>
+  </si>
+  <si>
+    <t>160296</t>
+  </si>
+  <si>
+    <t>929630</t>
+  </si>
+  <si>
+    <t>90170</t>
+  </si>
+  <si>
+    <t>254445</t>
+  </si>
+  <si>
+    <t>102148</t>
+  </si>
+  <si>
+    <t>102116</t>
+  </si>
+  <si>
+    <t>158380</t>
+  </si>
+  <si>
+    <t>380195</t>
+  </si>
+  <si>
+    <t>925958</t>
+  </si>
+  <si>
+    <t>901222025</t>
+  </si>
+  <si>
+    <t>900792025</t>
+  </si>
+  <si>
+    <t>900312025</t>
+  </si>
+  <si>
+    <t>900942025</t>
+  </si>
+  <si>
+    <t>900602025</t>
+  </si>
+  <si>
+    <t>900082025</t>
+  </si>
+  <si>
+    <t>900042025</t>
+  </si>
+  <si>
+    <t>901112025</t>
+  </si>
+  <si>
+    <t>901742025</t>
+  </si>
+  <si>
+    <t>900102025</t>
+  </si>
+  <si>
+    <t>900262025</t>
+  </si>
+  <si>
+    <t>900292025</t>
+  </si>
+  <si>
+    <t>900062025</t>
+  </si>
+  <si>
+    <t>900762025</t>
+  </si>
+  <si>
+    <t>900242025</t>
+  </si>
+  <si>
+    <t>900342025</t>
+  </si>
+  <si>
+    <t>900072025</t>
+  </si>
+  <si>
+    <t>900052025</t>
+  </si>
+  <si>
+    <t>900162025</t>
+  </si>
+  <si>
+    <t>900172025</t>
+  </si>
+  <si>
+    <t>900372025</t>
+  </si>
+  <si>
+    <t>900302025</t>
+  </si>
+  <si>
+    <t>900912025</t>
+  </si>
+  <si>
+    <t>900552025</t>
+  </si>
+  <si>
+    <t>900192025</t>
+  </si>
+  <si>
+    <t>904292025</t>
+  </si>
+  <si>
+    <t>900202025</t>
+  </si>
+  <si>
+    <t>900122025</t>
+  </si>
+  <si>
+    <t>900652025</t>
+  </si>
+  <si>
+    <t>900362025</t>
+  </si>
+  <si>
+    <t>910042025</t>
+  </si>
+  <si>
+    <t>900812024</t>
+  </si>
+  <si>
+    <t>900532025</t>
+  </si>
+  <si>
+    <t>900522025</t>
+  </si>
+  <si>
+    <t>900022025</t>
+  </si>
+  <si>
+    <t>900142025</t>
+  </si>
+  <si>
+    <t>952912025</t>
+  </si>
+  <si>
+    <t>901002025</t>
+  </si>
+  <si>
+    <t>900482025</t>
+  </si>
+  <si>
+    <t>904602025</t>
+  </si>
+  <si>
+    <t>900742025</t>
+  </si>
+  <si>
+    <t>901012025</t>
+  </si>
+  <si>
+    <t>916362025</t>
+  </si>
+  <si>
+    <t>900352025</t>
+  </si>
+  <si>
+    <t>900132025</t>
+  </si>
+  <si>
+    <t>902012025</t>
+  </si>
+  <si>
+    <t>900212025</t>
+  </si>
+  <si>
+    <t>900012025</t>
+  </si>
+  <si>
+    <t>901132025</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Santa Maria</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CRUZ DAS ALMAS/BA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Centro Federal de Educação Tecnológica Celso Suckow da Fonseca</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE ARAPONGAS/PR</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA ECONOMIA / BANCO CENTRAL DO BRASIL / Diretoria de Administração - DIRAD / Departamento de Infraestrutura e Gestão Patrimonial - DEMAP</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Secretaria de Ciência e Tecnologia / Centro Tecnológico do Exército / Centro de Avaliação do Exército</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE SAO LUIZ GONZAGA/RS</t>
+  </si>
+  <si>
+    <t>SECRETARIA MUNICIPAL DE CARUARU PE</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE RORAIMA / Procuradoria Geral de Justiça do Estado de Roraima</t>
+  </si>
+  <si>
+    <t>PREF.MUN.DE PEDREIRA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL. DE CIENCIAS E ENGEN.-C.TUPA</t>
+  </si>
+  <si>
+    <t>Fundação Municipal de Saúde de Ponta Grossa/PR</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 6ªDivisão de Exército / 3ªBrigada de Cavalaria Mecanizada / 3ºRegimento de Cavalaria Mecanizado</t>
+  </si>
+  <si>
+    <t>Câmara de Vereadores de Joinville/SC</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Capitania Fluvial da Amazônia Ocidental</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-CAIS - CLEMENTE FERREIRA, LINS</t>
+  </si>
+  <si>
+    <t>CONSELHO FEDERAL DE CORRETORES DE IMÓVEIS</t>
+  </si>
+  <si>
+    <t>CONSELHO REGIONAL DE MEDICINA VETERINARIA DO ESTADO DO TOCANTINS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT. SILVIO Y. HINOHARA, PRES.BERNARDES</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CATALÃO/GO</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARANÁ / Tribunal de Contas do Estado do Paraná</t>
+  </si>
+  <si>
+    <t>UNIVERSIDADE ESTADUAL DE MARINGÁ PR</t>
+  </si>
+  <si>
+    <t>Conselho Federal de Enfermagem</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE BROTAS DE MACAÚBAS/BA</t>
+  </si>
+  <si>
+    <t>Prefeitura do Municipio de Apucarana</t>
+  </si>
+  <si>
+    <t>Consórcio Intermunicipal de Saúde Alto das Vertentes/MG</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE ESTADO INDÚSTRIA, CIÊNCIA E TECNOLOGIA-AC</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE PARCERIAS EM INVESTIMENTOS / ESP-CENTRO ADMINISTRATIVO - PARCERIA INVEST.</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT. P.PRUDENTE WELLINGTON R.SEGURA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / GRUPAMENTO DE APOIO DE SÃO JOSÉ DOS CAMPOS</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Secretaria de Educação Media e Tecnológica / Instituto Federal de Educação, Ciencia e Tecnologia Catarinense</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARANÁ / Universidade Estadual do Oeste do Paraná</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Lavras</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Planalto / Comando 3ª Brigada de Infataria Motorizada / 36º Batalhão de Infantaria Mecanizado</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA ECONOMIA / Banco do Nordeste do Brasil S/A</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / Base Aérea de Natal</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Hospital Universitário da Universidade Federal do Amapá</t>
+  </si>
+  <si>
+    <t>Instituto de Previdência Social dos Servidores Públicos do Município de Joi / nville - SC</t>
+  </si>
+  <si>
+    <t>Câmara Municipal de Lençóis Paulista/SP</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Acará</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Cruzeiro do Sul</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Ceará / PREFEITURA MUNICIPAL DE CRATO</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE ITABERAI</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Montes Claros</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SÃO GABRIEL DA PALHA</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE ADMINISTRACAO DO ESTADO DE PERNAMBUCO</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE JUSTIÇA DE RONDÔNIA</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Rio de Janeiro / Município de Nova Friburgo</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE REALEZA</t>
+  </si>
+  <si>
+    <t>UINIVERSIDADE ESTADUAL DO PARANÁ DE PARANAVAÍ/PR</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / COMANDO MILITAR DO OESTE/9ª DIVISÃO DE EXÉRCITO / 3ª Bateria de Artilharia Antiaérea</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Leste / Brigada de Infantaria Paraquedista</t>
+  </si>
+  <si>
+    <t>CAMARAMUNICIPAL DE DIVINOPOLIS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-CTO.AT.INTEG.SAUDE MENTAL-DR.DAVID C.C.FI</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA SAÚDE / FUNDAÇÃO OSWALDO CRUZ / Instituto de Tecnologia em Imunobiologicos Bio Manguinhos</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-FACULDADE CIEN.FARMACÊUTICAS-RIB.PRET-USP</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-FACULDADE DE MEDICINA RIBERÃO PRETO - USP</t>
+  </si>
+  <si>
+    <t>Inst.Fed De Alagoas/Campos Marechal Deodoro</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT.´AEVP JAIR GUIMAR DE LIMA´ DE POTIM</t>
+  </si>
+  <si>
+    <t>SECRETAIA-GERAL DE GOVERNO - SGG / Secretaria da Fazenda / Secretaria da Saúde do Estado do Tocantins</t>
+  </si>
+  <si>
+    <t>U_153164_E_901222025_09-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_983495_E_900792025_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153010_E_900312025_09-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987427_E_900942025_12-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_179087_E_900602025_11-09-2025_16h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160237_E_900082025_09-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929994_E_900042025_09-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153164_E_901112025_08-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926809_E_901742025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926196_E_900102025_09-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986843_E_900262025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102328_E_900082025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930593_E_900292025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160363_E_900062025_08-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_930622_E_900762025_08-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_788310_E_900242025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90147_E_900342025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_389295_E_900072025_10-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_389209_E_900052025_09-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380128_E_900162025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_989301_E_900602025_08-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925457_E_900042025_09-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926764_E_900792025_10-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_389320_E_900172025_04-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90147_E_900372025_08-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_983389_E_900302025_04-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987427_E_900912025_05-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987425_E_900552025_04-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927658_E_900192025_09-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927996_E_904292025_03-09-2025_09h15m.zip</t>
+  </si>
+  <si>
+    <t>U_390105_E_900202025_03-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380123_E_900122025_03-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120016_E_900652025_04-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158125_E_900362025_08-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926097_E_910042025_05-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_153032_E_900812024_03-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160130_E_900102025_02-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_179085_E_900762025_03-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120631_E_900532025_02-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_156956_E_900522025_03-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928239_E_900042025_04-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930865_E_900022025_03-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_980403_E_900142025_02-09-2025_12h30m.zip</t>
+  </si>
+  <si>
+    <t>U_980107_E_900262025_02-09-2025_11h00m.zip</t>
+  </si>
+  <si>
+    <t>U_981385_E_952912025_08-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_989403_E_900912025_02-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_984865_E_901002025_03-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985693_E_900482025_10-09-2025_13h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926150_E_904602025_05-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925006_E_900742025_03-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985867_E_901012025_10-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987805_E_900482025_04-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_928591_E_916362025_01-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160521_E_900352025_03-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_160296_E_900162025_02-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929630_E_900132025_02-09-2025_14h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90170_E_900312025_03-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_254445_E_902012025_02-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102148_E_900172025_01-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102116_E_900212025_03-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_158380_E_900012025_01-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380195_E_900212025_02-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925958_E_901132025_18-09-2025_08h30m.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,25 +899,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +943,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,7 +977,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,10 +1011,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,25 +1186,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,6 +1214,1266 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="193">
   <si>
     <t>Timestamp</t>
   </si>
@@ -35,14 +35,571 @@
   </si>
   <si>
     <t>Link Compras.gov</t>
+  </si>
+  <si>
+    <t>2025-09-03 18:03:33</t>
+  </si>
+  <si>
+    <t>2025-09-03 21:20:52</t>
+  </si>
+  <si>
+    <t>2025-09-04 08:20:19</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:57:38</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>1019</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1024</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>1029</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>000999</t>
+  </si>
+  <si>
+    <t>001002</t>
+  </si>
+  <si>
+    <t>001004</t>
+  </si>
+  <si>
+    <t>001006</t>
+  </si>
+  <si>
+    <t>001008</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>001013</t>
+  </si>
+  <si>
+    <t>001015</t>
+  </si>
+  <si>
+    <t>001017</t>
+  </si>
+  <si>
+    <t>001019</t>
+  </si>
+  <si>
+    <t>001021</t>
+  </si>
+  <si>
+    <t>001023</t>
+  </si>
+  <si>
+    <t>001026</t>
+  </si>
+  <si>
+    <t>001028</t>
+  </si>
+  <si>
+    <t>001030</t>
+  </si>
+  <si>
+    <t>001032</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>001012</t>
+  </si>
+  <si>
+    <t>001014</t>
+  </si>
+  <si>
+    <t>001016</t>
+  </si>
+  <si>
+    <t>001018</t>
+  </si>
+  <si>
+    <t>001020</t>
+  </si>
+  <si>
+    <t>001022</t>
+  </si>
+  <si>
+    <t>001024</t>
+  </si>
+  <si>
+    <t>001034</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>001003</t>
+  </si>
+  <si>
+    <t>001005</t>
+  </si>
+  <si>
+    <t>001007</t>
+  </si>
+  <si>
+    <t>001025</t>
+  </si>
+  <si>
+    <t>001027</t>
+  </si>
+  <si>
+    <t>001033</t>
+  </si>
+  <si>
+    <t>001009</t>
+  </si>
+  <si>
+    <t>001031</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>00000017</t>
+  </si>
+  <si>
+    <t>00000019</t>
+  </si>
+  <si>
+    <t>00000021</t>
+  </si>
+  <si>
+    <t>00000023</t>
+  </si>
+  <si>
+    <t>00000025</t>
+  </si>
+  <si>
+    <t>00000028</t>
+  </si>
+  <si>
+    <t>00000030</t>
+  </si>
+  <si>
+    <t>00000032</t>
+  </si>
+  <si>
+    <t>00000034</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>00000016</t>
+  </si>
+  <si>
+    <t>00000018</t>
+  </si>
+  <si>
+    <t>00000020</t>
+  </si>
+  <si>
+    <t>00000022</t>
+  </si>
+  <si>
+    <t>00000024</t>
+  </si>
+  <si>
+    <t>00000026</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000027</t>
+  </si>
+  <si>
+    <t>00000029</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000033</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>U_000999_E_00000001_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001001_E_00000003_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001003_E_00000005_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001005_E_00000007_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001007_E_00000009_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001009_E_00000011_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001011_E_00000013_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001013_E_00000015_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001015_E_00000017_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001019_E_00000021_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001021_E_00000023_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001025_E_00000027_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001028_E_00000030_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001030_E_00000032_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001032_E_00000034_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001017_E_00000019_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001024_E_00000026_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001027_E_00000029_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001029_E_00000031_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001031_E_00000033_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001033_E_00000035_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001035_E_00000037_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001008_E_00000010_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001010_E_00000012_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001012_E_00000014_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001016_E_00000018_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001018_E_00000020_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001020_E_00000022_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001022_E_00000024_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001000_E_00000002_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001002_E_00000004_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001004_E_00000006_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001014_E_00000016_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001026_E_00000028_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001006_E_00000008_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001034_E_00000036_C_Desconhecido_m.zip</t>
+  </si>
+  <si>
+    <t>U_001023_E_00000025_C_Desconhecido_m.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,9 +610,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,16 +634,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -93,25 +651,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -120,10 +670,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -161,71 +711,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -249,53 +797,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -305,7 +854,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -314,7 +863,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -323,7 +872,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,10 +880,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -363,7 +912,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -376,12 +925,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -399,26 +949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,6 +977,1230 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="315">
   <si>
     <t>Timestamp</t>
   </si>
@@ -37,562 +37,928 @@
     <t>Link Compras.gov</t>
   </si>
   <si>
-    <t>2025-09-03 18:03:33</t>
-  </si>
-  <si>
-    <t>2025-09-03 21:20:52</t>
-  </si>
-  <si>
-    <t>2025-09-04 08:20:19</t>
-  </si>
-  <si>
-    <t>2025-09-04 12:57:38</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>1028</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>1026</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>000999</t>
-  </si>
-  <si>
-    <t>001002</t>
-  </si>
-  <si>
-    <t>001004</t>
-  </si>
-  <si>
-    <t>001006</t>
-  </si>
-  <si>
-    <t>001008</t>
-  </si>
-  <si>
-    <t>001010</t>
-  </si>
-  <si>
-    <t>001013</t>
-  </si>
-  <si>
-    <t>001015</t>
-  </si>
-  <si>
-    <t>001017</t>
-  </si>
-  <si>
-    <t>001019</t>
-  </si>
-  <si>
-    <t>001021</t>
-  </si>
-  <si>
-    <t>001023</t>
-  </si>
-  <si>
-    <t>001026</t>
-  </si>
-  <si>
-    <t>001028</t>
-  </si>
-  <si>
-    <t>001030</t>
-  </si>
-  <si>
-    <t>001032</t>
-  </si>
-  <si>
-    <t>001000</t>
-  </si>
-  <si>
-    <t>001012</t>
-  </si>
-  <si>
-    <t>001014</t>
-  </si>
-  <si>
-    <t>001016</t>
-  </si>
-  <si>
-    <t>001018</t>
-  </si>
-  <si>
-    <t>001020</t>
-  </si>
-  <si>
-    <t>001022</t>
-  </si>
-  <si>
-    <t>001024</t>
-  </si>
-  <si>
-    <t>001034</t>
-  </si>
-  <si>
-    <t>001001</t>
-  </si>
-  <si>
-    <t>001003</t>
-  </si>
-  <si>
-    <t>001005</t>
-  </si>
-  <si>
-    <t>001007</t>
-  </si>
-  <si>
-    <t>001025</t>
-  </si>
-  <si>
-    <t>001027</t>
-  </si>
-  <si>
-    <t>001033</t>
-  </si>
-  <si>
-    <t>001009</t>
-  </si>
-  <si>
-    <t>001031</t>
-  </si>
-  <si>
-    <t>001011</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>00000004</t>
-  </si>
-  <si>
-    <t>00000006</t>
-  </si>
-  <si>
-    <t>00000008</t>
-  </si>
-  <si>
-    <t>00000010</t>
-  </si>
-  <si>
-    <t>00000012</t>
-  </si>
-  <si>
-    <t>00000015</t>
-  </si>
-  <si>
-    <t>00000017</t>
-  </si>
-  <si>
-    <t>00000019</t>
-  </si>
-  <si>
-    <t>00000021</t>
-  </si>
-  <si>
-    <t>00000023</t>
-  </si>
-  <si>
-    <t>00000025</t>
-  </si>
-  <si>
-    <t>00000028</t>
-  </si>
-  <si>
-    <t>00000030</t>
-  </si>
-  <si>
-    <t>00000032</t>
-  </si>
-  <si>
-    <t>00000034</t>
-  </si>
-  <si>
-    <t>00000002</t>
-  </si>
-  <si>
-    <t>00000014</t>
-  </si>
-  <si>
-    <t>00000016</t>
-  </si>
-  <si>
-    <t>00000018</t>
-  </si>
-  <si>
-    <t>00000020</t>
-  </si>
-  <si>
-    <t>00000022</t>
-  </si>
-  <si>
-    <t>00000024</t>
-  </si>
-  <si>
-    <t>00000026</t>
-  </si>
-  <si>
-    <t>00000036</t>
-  </si>
-  <si>
-    <t>00000003</t>
-  </si>
-  <si>
-    <t>00000005</t>
-  </si>
-  <si>
-    <t>00000007</t>
-  </si>
-  <si>
-    <t>00000009</t>
-  </si>
-  <si>
-    <t>00000027</t>
-  </si>
-  <si>
-    <t>00000029</t>
-  </si>
-  <si>
-    <t>00000035</t>
-  </si>
-  <si>
-    <t>00000011</t>
-  </si>
-  <si>
-    <t>00000033</t>
-  </si>
-  <si>
-    <t>00000013</t>
-  </si>
-  <si>
-    <t>Desconhecido</t>
-  </si>
-  <si>
-    <t>U_000999_E_00000001_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001001_E_00000003_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001003_E_00000005_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001005_E_00000007_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001007_E_00000009_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001009_E_00000011_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001011_E_00000013_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001013_E_00000015_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001015_E_00000017_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001019_E_00000021_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001021_E_00000023_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001025_E_00000027_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001028_E_00000030_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001030_E_00000032_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001032_E_00000034_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001017_E_00000019_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001024_E_00000026_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001027_E_00000029_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001029_E_00000031_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001031_E_00000033_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001033_E_00000035_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001035_E_00000037_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001008_E_00000010_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001010_E_00000012_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001012_E_00000014_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001016_E_00000018_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001018_E_00000020_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001020_E_00000022_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001022_E_00000024_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001000_E_00000002_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001002_E_00000004_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001004_E_00000006_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001014_E_00000016_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001026_E_00000028_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001006_E_00000008_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001034_E_00000036_C_Desconhecido_m.zip</t>
-  </si>
-  <si>
-    <t>U_001023_E_00000025_C_Desconhecido_m.zip</t>
+    <t>2025-09-06 14:22:35</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>19/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 09:15</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 15:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>19/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>14/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 14:00</t>
+  </si>
+  <si>
+    <t>12/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>25/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 11:00</t>
+  </si>
+  <si>
+    <t>12/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:15</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 16:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>08/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>927317</t>
+  </si>
+  <si>
+    <t>987663</t>
+  </si>
+  <si>
+    <t>158154</t>
+  </si>
+  <si>
+    <t>987837</t>
+  </si>
+  <si>
+    <t>985825</t>
+  </si>
+  <si>
+    <t>927492</t>
+  </si>
+  <si>
+    <t>985801</t>
+  </si>
+  <si>
+    <t>380271</t>
+  </si>
+  <si>
+    <t>90173</t>
+  </si>
+  <si>
+    <t>926720</t>
+  </si>
+  <si>
+    <t>180198</t>
+  </si>
+  <si>
+    <t>927996</t>
+  </si>
+  <si>
+    <t>931102</t>
+  </si>
+  <si>
+    <t>453737</t>
+  </si>
+  <si>
+    <t>987779</t>
+  </si>
+  <si>
+    <t>988841</t>
+  </si>
+  <si>
+    <t>985015</t>
+  </si>
+  <si>
+    <t>112408</t>
+  </si>
+  <si>
+    <t>160253</t>
+  </si>
+  <si>
+    <t>925974</t>
+  </si>
+  <si>
+    <t>929895</t>
+  </si>
+  <si>
+    <t>925809</t>
+  </si>
+  <si>
+    <t>102123</t>
+  </si>
+  <si>
+    <t>180202</t>
+  </si>
+  <si>
+    <t>380231</t>
+  </si>
+  <si>
+    <t>926181</t>
+  </si>
+  <si>
+    <t>985811</t>
+  </si>
+  <si>
+    <t>120625</t>
+  </si>
+  <si>
+    <t>153049</t>
+  </si>
+  <si>
+    <t>461414</t>
+  </si>
+  <si>
+    <t>90112</t>
+  </si>
+  <si>
+    <t>92601</t>
+  </si>
+  <si>
+    <t>160040</t>
+  </si>
+  <si>
+    <t>102333</t>
+  </si>
+  <si>
+    <t>453714</t>
+  </si>
+  <si>
+    <t>985853</t>
+  </si>
+  <si>
+    <t>984675</t>
+  </si>
+  <si>
+    <t>987915</t>
+  </si>
+  <si>
+    <t>932929</t>
+  </si>
+  <si>
+    <t>120669</t>
+  </si>
+  <si>
+    <t>788820</t>
+  </si>
+  <si>
+    <t>160100</t>
+  </si>
+  <si>
+    <t>90102</t>
+  </si>
+  <si>
+    <t>90129</t>
+  </si>
+  <si>
+    <t>120628</t>
+  </si>
+  <si>
+    <t>928341</t>
+  </si>
+  <si>
+    <t>102305</t>
+  </si>
+  <si>
+    <t>153163</t>
+  </si>
+  <si>
+    <t>980228</t>
+  </si>
+  <si>
+    <t>160167</t>
+  </si>
+  <si>
+    <t>928709</t>
+  </si>
+  <si>
+    <t>925743</t>
+  </si>
+  <si>
+    <t>90147</t>
+  </si>
+  <si>
+    <t>102168</t>
+  </si>
+  <si>
+    <t>180101</t>
+  </si>
+  <si>
+    <t>926449</t>
+  </si>
+  <si>
+    <t>980469</t>
+  </si>
+  <si>
+    <t>102128</t>
+  </si>
+  <si>
+    <t>160143</t>
+  </si>
+  <si>
+    <t>925980</t>
+  </si>
+  <si>
+    <t>929994</t>
+  </si>
+  <si>
+    <t>179087</t>
+  </si>
+  <si>
+    <t>987427</t>
+  </si>
+  <si>
+    <t>153010</t>
+  </si>
+  <si>
+    <t>983495</t>
+  </si>
+  <si>
+    <t>153164</t>
+  </si>
+  <si>
+    <t>930622</t>
+  </si>
+  <si>
+    <t>788310</t>
+  </si>
+  <si>
+    <t>930593</t>
+  </si>
+  <si>
+    <t>102328</t>
+  </si>
+  <si>
+    <t>986843</t>
+  </si>
+  <si>
+    <t>900342025</t>
+  </si>
+  <si>
+    <t>900802025</t>
+  </si>
+  <si>
+    <t>906062025</t>
+  </si>
+  <si>
+    <t>900642025</t>
+  </si>
+  <si>
+    <t>900282025</t>
+  </si>
+  <si>
+    <t>900262025</t>
+  </si>
+  <si>
+    <t>900572025</t>
+  </si>
+  <si>
+    <t>900162025</t>
+  </si>
+  <si>
+    <t>900762025</t>
+  </si>
+  <si>
+    <t>900272025</t>
+  </si>
+  <si>
+    <t>904492025</t>
+  </si>
+  <si>
+    <t>900052025</t>
+  </si>
+  <si>
+    <t>900102025</t>
+  </si>
+  <si>
+    <t>900352025</t>
+  </si>
+  <si>
+    <t>900662025</t>
+  </si>
+  <si>
+    <t>900612025</t>
+  </si>
+  <si>
+    <t>900372025</t>
+  </si>
+  <si>
+    <t>900082025</t>
+  </si>
+  <si>
+    <t>903972025</t>
+  </si>
+  <si>
+    <t>900122025</t>
+  </si>
+  <si>
+    <t>900382025</t>
+  </si>
+  <si>
+    <t>900622025</t>
+  </si>
+  <si>
+    <t>900152025</t>
+  </si>
+  <si>
+    <t>900092025</t>
+  </si>
+  <si>
+    <t>900482025</t>
+  </si>
+  <si>
+    <t>901012025</t>
+  </si>
+  <si>
+    <t>910052025</t>
+  </si>
+  <si>
+    <t>900032025</t>
+  </si>
+  <si>
+    <t>901462025</t>
+  </si>
+  <si>
+    <t>900012025</t>
+  </si>
+  <si>
+    <t>900222025</t>
+  </si>
+  <si>
+    <t>900692025</t>
+  </si>
+  <si>
+    <t>900072025</t>
+  </si>
+  <si>
+    <t>900132025</t>
+  </si>
+  <si>
+    <t>901922025</t>
+  </si>
+  <si>
+    <t>900332025</t>
+  </si>
+  <si>
+    <t>901082025</t>
+  </si>
+  <si>
+    <t>900112025</t>
+  </si>
+  <si>
+    <t>901692025</t>
+  </si>
+  <si>
+    <t>904402025</t>
+  </si>
+  <si>
+    <t>900142025</t>
+  </si>
+  <si>
+    <t>900392025</t>
+  </si>
+  <si>
+    <t>900252025</t>
+  </si>
+  <si>
+    <t>910202025</t>
+  </si>
+  <si>
+    <t>900432025</t>
+  </si>
+  <si>
+    <t>900042025</t>
+  </si>
+  <si>
+    <t>900602025</t>
+  </si>
+  <si>
+    <t>900942025</t>
+  </si>
+  <si>
+    <t>900312025</t>
+  </si>
+  <si>
+    <t>900792025</t>
+  </si>
+  <si>
+    <t>901222025</t>
+  </si>
+  <si>
+    <t>900242025</t>
+  </si>
+  <si>
+    <t>900292025</t>
+  </si>
+  <si>
+    <t>SERVIÇO AUTÔNOMO DE ÁGUA E ESGOTO DE ITAUNA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE LOANDA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / INSTITUTO FEDERAL DE EDUCAÇÃO, CIÊNCIA E TECNOLOGIA DE SÃO PAULO</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DO SALTO DO LONTRA/PR</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CASIMIRO DE ABREU</t>
+  </si>
+  <si>
+    <t>FUNDO MUNICIAL DE SAUDE DE VASSOURAS RJ</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE ANGRA DOS REIS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT. DE LIMEIRA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-CTO.ATENCAO INTEGRADA SAUDE MENTAL-P.PINE</t>
+  </si>
+  <si>
+    <t>CONSORCIO INTERMUNICIPAL DA REDE DE URGÊNCIA DO SUDOESTE DO PARANÁ - CIRUSP / AR PR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-COMANDO DE POLICIAMENTO AMBIENTAL(CPAMB)</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE ESTADO INDÚSTRIA, CIÊNCIA E TECNOLOGIA-AC</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE CUIABÁ</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE CONTAS DO ESTADO DE SERGIPE</t>
+  </si>
+  <si>
+    <t>PREFEITURA DO MUNICÍPIO DE PORECATU</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SANTA MARIA/RS</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE PIRANGA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Secretaria de Organização Institucional / Hospital das Forças Armadas</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Leste / 1ºBatalhão de Guardas</t>
+  </si>
+  <si>
+    <t>Universidade do Estado do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>EMPRESA DE TECNOLOGIA DE INFORMACAO DO ESTADO DO PIAUI S/A - ETIPI</t>
+  </si>
+  <si>
+    <t>Polícia Militar do Pará</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-ESCOLA DE COMUNICAÇÕES E ARTES - USP</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-ESCOLA SUPER. BOMBEIROS CEL.PAULO MARQUES</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT. ´VANDERLEI T. MONTEIRO´, TUPI PAUL</t>
+  </si>
+  <si>
+    <t>SECRETAIA-GERAL DE GOVERNO - SGG / Assembleia Legislativa do Estado do Tocantins</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Rio de Janeiro / PREFEITURA MUNICIPAL DE BOM JESUS DO ITABAPOANA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / GRUPAMENTO DE APOIO DO DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>Centro Universitário Norte Do Espirito Santo</t>
+  </si>
+  <si>
+    <t>CONSORCIO INTERMUNICIPAL DE SAÚDE DO MEDIO PARANAPANEMA/PR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-GABINETE DO COORDENADOR SEC. SAUDE 1</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-HOSP. CLIN FAC. MED. MARILIA - HC FAMEMA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Nordeste / 6ª Região Militar / Parque Regional de Manutenção</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACULDADE DE CIENCIAS-C.BAURU</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO DE APOIO À PESQUISA AO ENSINO E À CULTURA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE MARICA RJ</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE ITAUNA - MG</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARANÁ / PREFEITURA DE TELEMACO BORBA</t>
+  </si>
+  <si>
+    <t>SERVIÇO AUTONOMO DE AGUA E ESGOTO DE JAGUARIUNA/SP</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / Base Aérea de Santa Cruz</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Comando de Operações Navais / Comando do 9º Distrito Naval / Centro de Intendencia da Marinha em Manaus</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Planalto / Comando 3ª Brigada de Infataria Motorizada</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-COORD. GERAL ADMINIST. - CGA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-HOSP. STA.TEREZA, RIB.PRETO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / GRUPAMENTO DE APOIO DE BELÉM</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE UMIRIM / FUNDO MUNICIPAL DE EDUCAÇÃO DE LIMOEIRO/PE</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL.DE ODONTOLOGIA-C.ARARAQUARA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Santa Catarina / Pró-Reitoria de Administração</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SAO DOMINGOS DO AZEITAO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar da Amazônia / 23ª Brigada de Infantaria de Selva / 53º Batalhão de Infantaria de Selva</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇAO DE APOIO AO COLEGIO ESTADUAL JOAQUINA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>Secretaria de Estado da Fazenda</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-CAIS - CLEMENTE FERREIRA, LINS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-ESCOLA DE ARTES CIÊNCIAS E HUMAN- USP</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-GABINETE DO SECRETARIO E ASSES.SEC.S.PUBL</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE GUAMARÉ</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE IRITUIA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-PRÓ-REITORIA INCLUSÃO PERTENCIMENTO-USP</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / COMANDO MILITAR DO OESTE/9ª DIVISÃO DE EXÉRCITO / 9ª REGIÃO MILITAR / Hospital Militar de Área de Campo Grande</t>
+  </si>
+  <si>
+    <t>Ministério Público do Estado do Pará</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE SAO LUIZ GONZAGA/RS</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA ECONOMIA / BANCO CENTRAL DO BRASIL / Diretoria de Administração - DIRAD / Departamento de Infraestrutura e Gestão Patrimonial - DEMAP</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE ARAPONGAS/PR</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Centro Federal de Educação Tecnológica Celso Suckow da Fonseca</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CRUZ DAS ALMAS/BA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Santa Maria</t>
+  </si>
+  <si>
+    <t>Câmara de Vereadores de Joinville/SC</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Capitania Fluvial da Amazônia Ocidental</t>
+  </si>
+  <si>
+    <t>Fundação Municipal de Saúde de Ponta Grossa/PR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL. DE CIENCIAS E ENGEN.-C.TUPA</t>
+  </si>
+  <si>
+    <t>PREF.MUN.DE PEDREIRA</t>
+  </si>
+  <si>
+    <t>U_927317_E_900342025_C_SERVIÇO_AUTÔNOMO_DE_ÁGUA_E_ESGOTO_DE_ITAUNA_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987663_E_900802025_C_PREFEITURA_MUNICIPAL_DE_LOANDA_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158154_E_906062025_C_MINISTÉRIO_DA_EDUCAÇÃO___INSTITUTO_FEDERAL_DE_EDUCAÇÃO__CIÊNCIA_E_TECNOLOGIA_DE_SÃO_PAULO_18-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_987837_E_900642025_C_PREFEITURA_MUNICIPAL_DO_SALTO_DO_LONTRA_PR_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985825_E_900282025_C_PREFEITURA_MUNICIPAL_DE_CASIMIRO_DE_ABREU_19-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927492_E_900262025_C_FUNDO_MUNICIAL_DE_SAUDE_DE_VASSOURAS_RJ_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985801_E_900572025_C_PREFEITURA_MUNICIPAL_DE_ANGRA_DOS_REIS_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380271_E_900162025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-PENIT__DE_LIMEIRA_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90173_E_900762025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CTO_ATENCAO_INTEGRADA_SAUDE_MENTAL-P_PINE_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926720_E_900162025_C_CONSORCIO_INTERMUNICIPAL_DA_REDE_DE_URGÊNCIA_DO_SUDOESTE_DO_PARANÁ_-_CIRUSP___AR_PR_18-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180198_E_900272025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SEGURANCA_PUBLICA___ESP-COMANDO_DE_POLICIAMENTO_AMBIENTAL_CPAMB__16-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927996_E_904492025_C_SECRETARIA_DE_ESTADO_INDÚSTRIA__CIÊNCIA_E_TECNOLOGIA-AC_17-09-2025_09h15m.zip</t>
+  </si>
+  <si>
+    <t>U_931102_E_900052025_C_CÂMARA_MUNICIPAL_DE_CUIABÁ_18-09-2025_15h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453737_E_900102025_C_TRIBUNAL_DE_CONTAS_DO_ESTADO_DE_SERGIPE_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987779_E_900352025_C_PREFEITURA_DO_MUNICÍPIO_DE_PORECATU_16-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_988841_E_900662025_C_PREFEITURA_MUNICIPAL_DE_SANTA_MARIA_RS_16-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_985015_E_900612025_C_PREFEITURA_MUNICIPAL_DE_PIRANGA_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_112408_E_900372025_C_MINISTÉRIO_DA_DEFESA___Secretaria_de_Organização_Institucional___Hospital_das_Forças_Armadas_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160253_E_900082025_C_MINISTÉRIO_DA_DEFESA___Comando_do_Exército___Comando_Militar_do_Leste___1ºBatalhão_de_Guardas_15-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925974_E_903972025_C_Universidade_do_Estado_do_Rio_de_Janeiro_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929895_E_900122025_C_EMPRESA_DE_TECNOLOGIA_DE_INFORMACAO_DO_ESTADO_DO_PIAUI_S_A_-_ETIPI_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925809_E_900382025_C_Polícia_Militar_do_Pará_19-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102123_E_900622025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-ESCOLA_DE_COMUNICAÇÕES_E_ARTES_-_USP_14-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180202_E_900082025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SEGURANCA_PUBLICA___ESP-ESCOLA_SUPER__BOMBEIROS_CEL_PAULO_MARQUES_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380231_E_900152025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-PENIT___VANDERLEI_T__MONTEIRO___TUPI_PAUL_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926181_E_900102025_C_SECRETAIA-GERAL_DE_GOVERNO_-_SGG___Assembleia_Legislativa_do_Estado_do_Tocantins_17-09-2025_14h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926181_E_900092025_C_SECRETAIA-GERAL_DE_GOVERNO_-_SGG___Assembleia_Legislativa_do_Estado_do_Tocantins_16-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_985811_E_900482025_C_Governo_do_Estado_do_Rio_de_Janeiro___PREFEITURA_MUNICIPAL_DE_BOM_JESUS_DO_ITABAPOANA_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120625_E_901012025_C_MINISTÉRIO_DA_DEFESA___Comando_da_Aeronáutica___GRUPAMENTO_DE_APOIO_DO_DISTRITO_FEDERAL_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153049_E_910052025_C_Centro_Universitário_Norte_Do_Espirito_Santo_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_461414_E_900152025_C_CONSORCIO_INTERMUNICIPAL_DE_SAÚDE_DO_MEDIO_PARANAPANEMA_PR_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90112_E_900032025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-GABINETE_DO_COORDENADOR_SEC__SAUDE_1_12-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_92601_E_901462025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-HOSP__CLIN_FAC__MED__MARILIA_-_HC_FAMEMA_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160040_E_900122025_C_MINISTÉRIO_DA_DEFESA___Comando_do_Exército___Comando_Militar_do_Nordeste___6ª_Região_Militar___Parque_Regional_de_Manutenção_18-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_102333_E_900012025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-UNESP-FACULDADE_DE_CIENCIAS-C_BAURU_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453714_E_900152025_C_FUNDAÇÃO_DE_APOIO_À_PESQUISA_AO_ENSINO_E_À_CULTURA_25-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_985853_E_900222025_C_PREFEITURA_MUNICIPAL_DE_MARICA_RJ_15-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_984675_E_900692025_C_PREFEITURA_MUNICIPAL_DE_ITAUNA_-_MG_17-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_987915_E_900662025_C_GOVERNO_DO_ESTADO_DO_PARANÁ___PREFEITURA_DE_TELEMACO_BORBA_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_932929_E_900072025_C_SERVIÇO_AUTONOMO_DE_AGUA_E_ESGOTO_DE_JAGUARIUNA_SP_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120669_E_900282025_C_MINISTÉRIO_DA_DEFESA___Comando_da_Aeronáutica___Base_Aérea_de_Santa_Cruz_11-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_788820_E_900082025_C_MINISTÉRIO_DA_DEFESA___COMANDO_DA_MARINHA___Comando_de_Operações_Navais___Comando_do_9º_Distrito_Naval___Centro_de_Intendencia_da_Marinha_em_Manaus_18-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_160100_E_900132025_C_MINISTÉRIO_DA_DEFESA___Comando_do_Exército___Comando_Militar_do_Planalto___Comando_3ª_Brigada_de_Infataria_Motorizada_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90102_E_901922025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-COORD__GERAL_ADMINIST__-_CGA_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90129_E_900332025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-HOSP__STA_TEREZA__RIB_PRETO_15-09-2025_11h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120628_E_901082025_C_MINISTÉRIO_DA_DEFESA___Comando_da_Aeronáutica___GRUPAMENTO_DE_APOIO_DE_BELÉM_12-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928341_E_900112025_C_PREFEITURA_MUNICIPAL_DE_UMIRIM___FUNDO_MUNICIPAL_DE_EDUCAÇÃO_DE_LIMOEIRO_PE_11-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102305_E_900072025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-UNESP-FACUL_DE_ODONTOLOGIA-C_ARARAQUARA_11-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153163_E_901692025_C_MINISTÉRIO_DA_EDUCAÇÃO___Universidade_Federal_de_Santa_Catarina___Pró-Reitoria_de_Administração_11-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_980228_E_900082025_C_PREFEITURA_MUNICIPAL_DE_SAO_DOMINGOS_DO_AZEITAO_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160167_E_900102025_C_MINISTÉRIO_DA_DEFESA___Comando_do_Exército___Comando_Militar_da_Amazônia___23ª_Brigada_de_Infantaria_de_Selva___53º_Batalhão_de_Infantaria_de_Selva_10-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928709_E_900012025_C_ASSOCIAÇAO_DE_APOIO_AO_COLEGIO_ESTADUAL_JOAQUINA_MARIA_DA_SILVA_15-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_927996_E_904402025_C_SECRETARIA_DE_ESTADO_INDÚSTRIA__CIÊNCIA_E_TECNOLOGIA-AC_15-09-2025_09h15m.zip</t>
+  </si>
+  <si>
+    <t>U_925743_E_900142025_C_Secretaria_de_Estado_da_Fazenda_11-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_90147_E_900392025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CAIS_-_CLEMENTE_FERREIRA__LINS_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102168_E_900032025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-ESCOLA_DE_ARTES_CIÊNCIAS_E_HUMAN-_USP_16-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180101_E_900252025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SEGURANCA_PUBLICA___ESP-GABINETE_DO_SECRETARIO_E_ASSES_SEC_S_PUBL_11-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926449_E_900332025_C_PREFEITURA_MUNICIPAL_DE_GUAMARÉ_11-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_980469_E_900132025_C_PREFEITURA_MUNICIPAL_DE_IRITUIA_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102128_E_910202025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-PRÓ-REITORIA_INCLUSÃO_PERTENCIMENTO-USP_15-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160143_E_900102025_C_MINISTÉRIO_DA_DEFESA___Comando_do_Exército___COMANDO_MILITAR_DO_OESTE_9ª_DIVISÃO_DE_EXÉRCITO___9ª_REGIÃO_MILITAR___Hospital_Militar_de_Área_de_Campo_Grande_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925980_E_900432025_C_Ministério_Público_do_Estado_do_Pará_11-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929994_E_900042025_C_CÂMARA_MUNICIPAL_DE_SAO_LUIZ_GONZAGA_RS_09-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_179087_E_900602025_C_MINISTÉRIO_DA_ECONOMIA___BANCO_CENTRAL_DO_BRASIL___Diretoria_de_Administração_-_DIRAD___Departamento_de_Infraestrutura_e_Gestão_Patrimonial_-_DEMAP_11-09-2025_16h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987427_E_900942025_C_PREFEITURA_MUNICIPAL_DE_ARAPONGAS_PR_12-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153010_E_900312025_C_MINISTÉRIO_DA_EDUCAÇÃO___Centro_Federal_de_Educação_Tecnológica_Celso_Suckow_da_Fonseca_09-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_983495_E_900792025_C_PREFEITURA_MUNICIPAL_DE_CRUZ_DAS_ALMAS_BA_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153164_E_901222025_C_MINISTÉRIO_DA_EDUCAÇÃO___Universidade_Federal_de_Santa_Maria_09-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930622_E_900762025_C_Câmara_de_Vereadores_de_Joinville_SC_08-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_788310_E_900242025_C_MINISTÉRIO_DA_DEFESA___COMANDO_DA_MARINHA___Capitania_Fluvial_da_Amazônia_Ocidental_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90147_E_900342025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CAIS_-_CLEMENTE_FERREIRA__LINS_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930593_E_900292025_C_Fundação_Municipal_de_Saúde_de_Ponta_Grossa_PR_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102328_E_900082025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-UNESP-FACUL__DE_CIENCIAS_E_ENGEN_-C_TUPA_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986843_E_900262025_C_PREF_MUN_DE_PEDREIRA_10-09-2025_09h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -950,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -983,1224 +1349,1480 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>7</v>
       </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>7</v>
       </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>7</v>
       </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>7</v>
       </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>7</v>
       </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>7</v>
       </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>7</v>
       </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>7</v>
       </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>7</v>
       </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>7</v>
       </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>7</v>
       </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>7</v>
       </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>7</v>
       </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>7</v>
       </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>7</v>
       </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>7</v>
       </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>7</v>
       </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>7</v>
       </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="F56" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="F62" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
-        <v>157</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>159</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="F67" t="s">
-        <v>160</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="F69" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="F70" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" t="s">
+        <v>240</v>
+      </c>
+      <c r="F75" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="371">
   <si>
     <t>Timestamp</t>
   </si>
@@ -37,7 +37,19 @@
     <t>Link Compras.gov</t>
   </si>
   <si>
-    <t>2025-09-06 14:22:35</t>
+    <t>2025-09-07 09:47:00</t>
+  </si>
+  <si>
+    <t>2025-09-08 14:07:58</t>
+  </si>
+  <si>
+    <t>2025-09-08 14:30:18</t>
+  </si>
+  <si>
+    <t>2025-09-08 14:48:50</t>
+  </si>
+  <si>
+    <t>2025-09-08 15:45:03</t>
   </si>
   <si>
     <t>18/09/2025 - 09:00</t>
@@ -145,15 +157,27 @@
     <t>09/09/2025 - 09:00</t>
   </si>
   <si>
+    <t>09/09/2025 - 10:00</t>
+  </si>
+  <si>
     <t>11/09/2025 - 16:00</t>
   </si>
   <si>
-    <t>09/09/2025 - 10:00</t>
-  </si>
-  <si>
     <t>08/09/2025 - 09:00</t>
   </si>
   <si>
+    <t>29/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>23/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>08/09/2025 - 08:30</t>
+  </si>
+  <si>
     <t>927317</t>
   </si>
   <si>
@@ -337,6 +361,9 @@
     <t>929994</t>
   </si>
   <si>
+    <t>160237</t>
+  </si>
+  <si>
     <t>179087</t>
   </si>
   <si>
@@ -367,6 +394,45 @@
     <t>986843</t>
   </si>
   <si>
+    <t>153019</t>
+  </si>
+  <si>
+    <t>927190</t>
+  </si>
+  <si>
+    <t>928576</t>
+  </si>
+  <si>
+    <t>157249</t>
+  </si>
+  <si>
+    <t>453330</t>
+  </si>
+  <si>
+    <t>102150</t>
+  </si>
+  <si>
+    <t>982929</t>
+  </si>
+  <si>
+    <t>180196</t>
+  </si>
+  <si>
+    <t>453747</t>
+  </si>
+  <si>
+    <t>160251</t>
+  </si>
+  <si>
+    <t>158456</t>
+  </si>
+  <si>
+    <t>160441</t>
+  </si>
+  <si>
+    <t>160363</t>
+  </si>
+  <si>
     <t>900342025</t>
   </si>
   <si>
@@ -526,6 +592,18 @@
     <t>900292025</t>
   </si>
   <si>
+    <t>900862025</t>
+  </si>
+  <si>
+    <t>902292025</t>
+  </si>
+  <si>
+    <t>900022025</t>
+  </si>
+  <si>
+    <t>900062025</t>
+  </si>
+  <si>
     <t>SERVIÇO AUTÔNOMO DE ÁGUA E ESGOTO DE ITAUNA</t>
   </si>
   <si>
@@ -709,6 +787,9 @@
     <t>CÂMARA MUNICIPAL DE SAO LUIZ GONZAGA/RS</t>
   </si>
   <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Secretaria de Ciência e Tecnologia / Centro Tecnológico do Exército / Centro de Avaliação do Exército</t>
+  </si>
+  <si>
     <t>MINISTÉRIO DA ECONOMIA / BANCO CENTRAL DO BRASIL / Diretoria de Administração - DIRAD / Departamento de Infraestrutura e Gestão Patrimonial - DEMAP</t>
   </si>
   <si>
@@ -739,6 +820,45 @@
     <t>PREF.MUN.DE PEDREIRA</t>
   </si>
   <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Tecnológica Federal do Paraná</t>
+  </si>
+  <si>
+    <t>Governo do Estado de Mato Grosso / SERVIÇO DE SANEAMENTO AMBIENTAL ÁGUAS DO PANTANAL</t>
+  </si>
+  <si>
+    <t>SERVIÇO AUTONOMO MUNICIPAL DE AGUA E ESGOTO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Hospital Universitário da Universidade Federal de Roraima</t>
+  </si>
+  <si>
+    <t>PREFEITURA DA ESTANCIA HIDROMINERAL DE POA ESTADO DE SAO PAULO</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-HOSPITAL UNIVERSITÁRIO - USP</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Marechal Floriano/ES</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-COMANDO DE POLICIAMENTO DE TRANSITO</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Maranhão / DEFENSORIA PUBLICA DO ESTADO MARANHÃO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Leste / 1ªDivisão de Exército / GUEs/9ªBrigada de Infantaria Motorizada / Batalhao Escola de Comunicações</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Secretaria Executiva / Subsecretaria de Planejamento e Orçamento / Instituto Federal de Educação, Ciência e Tecnologia do Maranhão / Campus Caxias</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 5ª Região Militar / 14ªBrigada de Infantaria Motorizada / 28ºGrupo de Artilharia de Campanha</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 6ªDivisão de Exército / 3ªBrigada de Cavalaria Mecanizada / 3ºRegimento de Cavalaria Mecanizado</t>
+  </si>
+  <si>
     <t>U_927317_E_900342025_C_SERVIÇO_AUTÔNOMO_DE_ÁGUA_E_ESGOTO_DE_ITAUNA_18-09-2025_09h00m.zip</t>
   </si>
   <si>
@@ -928,6 +1048,9 @@
     <t>U_929994_E_900042025_C_CÂMARA_MUNICIPAL_DE_SAO_LUIZ_GONZAGA_RS_09-09-2025_09h00m.zip</t>
   </si>
   <si>
+    <t>U_160237_E_900082025_C_MINISTÉRIO_DA_DEFESA___Comando_do_Exército___Secretaria_de_Ciência_e_Tecnologia___Centro_Tecnológico_do_Exército___Centro_de_Avaliação_do_Exército_09-09-2025_10h00m.zip</t>
+  </si>
+  <si>
     <t>U_179087_E_900602025_C_MINISTÉRIO_DA_ECONOMIA___BANCO_CENTRAL_DO_BRASIL___Diretoria_de_Administração_-_DIRAD___Departamento_de_Infraestrutura_e_Gestão_Patrimonial_-_DEMAP_11-09-2025_16h00m.zip</t>
   </si>
   <si>
@@ -959,6 +1082,51 @@
   </si>
   <si>
     <t>U_986843_E_900262025_C_PREF_MUN_DE_PEDREIRA_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153019_E_900092025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927190_E_900142025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928576_E_900862025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_157249_E_900032025_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453330_E_900432025_19-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986843_E_900292025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102328_E_900132025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102150_E_902292025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_982929_E_900032025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180196_E_900262025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453747_E_900282025_23-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160251_E_900022025_11-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158456_E_900032025_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160441_E_900082025_15-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_160363_E_900062025_08-09-2025_08h30m.zip</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,19 +1518,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1370,19 +1538,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1390,19 +1558,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1410,19 +1578,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1430,19 +1598,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1450,19 +1618,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1470,19 +1638,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1490,19 +1658,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1510,19 +1678,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1530,19 +1698,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1550,19 +1718,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1570,19 +1738,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1590,19 +1758,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1610,19 +1778,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1630,19 +1798,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1650,19 +1818,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1670,19 +1838,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1690,19 +1858,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1710,19 +1878,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1730,19 +1898,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1750,19 +1918,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1770,19 +1938,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1790,19 +1958,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1810,19 +1978,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1830,19 +1998,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1850,19 +2018,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1870,19 +2038,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1890,19 +2058,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1910,19 +2078,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1930,19 +2098,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1950,19 +2118,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1970,19 +2138,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1990,19 +2158,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2010,19 +2178,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2030,19 +2198,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2050,19 +2218,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2070,19 +2238,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2090,19 +2258,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2110,19 +2278,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2130,19 +2298,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2150,19 +2318,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="F42" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2170,19 +2338,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2190,19 +2358,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2210,19 +2378,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="F45" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2230,19 +2398,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2250,19 +2418,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2270,19 +2438,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="F48" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2290,19 +2458,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2310,19 +2478,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F50" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2330,19 +2498,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2350,19 +2518,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="F52" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2370,19 +2538,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2390,19 +2558,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2410,19 +2578,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2430,19 +2598,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2450,19 +2618,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2470,19 +2638,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2490,19 +2658,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="F59" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2510,19 +2678,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2530,19 +2698,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2550,19 +2718,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="F62" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2570,19 +2738,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2590,19 +2758,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2610,19 +2778,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2630,19 +2798,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2650,19 +2818,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2670,19 +2838,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2690,19 +2858,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E69" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2710,19 +2878,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="F70" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2730,19 +2898,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="F71" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2750,19 +2918,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="F72" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2770,19 +2938,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2790,19 +2958,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E74" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F74" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2810,19 +2978,339 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>314</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>268</v>
+      </c>
+      <c r="F77" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" t="s">
+        <v>272</v>
+      </c>
+      <c r="F81" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" t="s">
+        <v>193</v>
+      </c>
+      <c r="E84" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" t="s">
+        <v>275</v>
+      </c>
+      <c r="F86" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" t="s">
+        <v>143</v>
+      </c>
+      <c r="E87" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" t="s">
+        <v>277</v>
+      </c>
+      <c r="F88" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" t="s">
+        <v>280</v>
+      </c>
+      <c r="F91" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="346">
   <si>
     <t>Timestamp</t>
   </si>
@@ -37,10 +37,7 @@
     <t>Link Compras.gov</t>
   </si>
   <si>
-    <t>2025-09-09 09:53:08</t>
-  </si>
-  <si>
-    <t>2025-09-09 10:24:41</t>
+    <t>2025-09-09 16:22:44</t>
   </si>
   <si>
     <t>23/09/2025 - 11:00</t>
@@ -91,6 +88,87 @@
     <t>18/09/2025 - 08:00</t>
   </si>
   <si>
+    <t>16/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 09:15</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 15:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>16/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>14/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 14:00</t>
+  </si>
+  <si>
+    <t>12/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>25/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 11:00</t>
+  </si>
+  <si>
+    <t>12/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 - 09:15</t>
+  </si>
+  <si>
+    <t>11/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>10/09/2025 - 09:00</t>
+  </si>
+  <si>
     <t>393020</t>
   </si>
   <si>
@@ -148,9 +226,6 @@
     <t>986843</t>
   </si>
   <si>
-    <t>102328</t>
-  </si>
-  <si>
     <t>102150</t>
   </si>
   <si>
@@ -193,6 +268,144 @@
     <t>926720</t>
   </si>
   <si>
+    <t>180198</t>
+  </si>
+  <si>
+    <t>927996</t>
+  </si>
+  <si>
+    <t>931102</t>
+  </si>
+  <si>
+    <t>453737</t>
+  </si>
+  <si>
+    <t>987779</t>
+  </si>
+  <si>
+    <t>988841</t>
+  </si>
+  <si>
+    <t>985015</t>
+  </si>
+  <si>
+    <t>112408</t>
+  </si>
+  <si>
+    <t>160253</t>
+  </si>
+  <si>
+    <t>925974</t>
+  </si>
+  <si>
+    <t>929895</t>
+  </si>
+  <si>
+    <t>925809</t>
+  </si>
+  <si>
+    <t>102123</t>
+  </si>
+  <si>
+    <t>380231</t>
+  </si>
+  <si>
+    <t>926181</t>
+  </si>
+  <si>
+    <t>985811</t>
+  </si>
+  <si>
+    <t>120625</t>
+  </si>
+  <si>
+    <t>153049</t>
+  </si>
+  <si>
+    <t>461414</t>
+  </si>
+  <si>
+    <t>90112</t>
+  </si>
+  <si>
+    <t>92601</t>
+  </si>
+  <si>
+    <t>160040</t>
+  </si>
+  <si>
+    <t>102333</t>
+  </si>
+  <si>
+    <t>453714</t>
+  </si>
+  <si>
+    <t>985853</t>
+  </si>
+  <si>
+    <t>984675</t>
+  </si>
+  <si>
+    <t>987915</t>
+  </si>
+  <si>
+    <t>932929</t>
+  </si>
+  <si>
+    <t>120669</t>
+  </si>
+  <si>
+    <t>788820</t>
+  </si>
+  <si>
+    <t>160251</t>
+  </si>
+  <si>
+    <t>160100</t>
+  </si>
+  <si>
+    <t>90129</t>
+  </si>
+  <si>
+    <t>120628</t>
+  </si>
+  <si>
+    <t>928341</t>
+  </si>
+  <si>
+    <t>102305</t>
+  </si>
+  <si>
+    <t>158456</t>
+  </si>
+  <si>
+    <t>153163</t>
+  </si>
+  <si>
+    <t>980228</t>
+  </si>
+  <si>
+    <t>160441</t>
+  </si>
+  <si>
+    <t>160167</t>
+  </si>
+  <si>
+    <t>928709</t>
+  </si>
+  <si>
+    <t>925743</t>
+  </si>
+  <si>
+    <t>90147</t>
+  </si>
+  <si>
+    <t>102168</t>
+  </si>
+  <si>
+    <t>180101</t>
+  </si>
+  <si>
     <t>903182025</t>
   </si>
   <si>
@@ -271,6 +484,93 @@
     <t>900762025</t>
   </si>
   <si>
+    <t>900272025</t>
+  </si>
+  <si>
+    <t>904492025</t>
+  </si>
+  <si>
+    <t>900052025</t>
+  </si>
+  <si>
+    <t>900102025</t>
+  </si>
+  <si>
+    <t>900352025</t>
+  </si>
+  <si>
+    <t>900662025</t>
+  </si>
+  <si>
+    <t>900372025</t>
+  </si>
+  <si>
+    <t>900082025</t>
+  </si>
+  <si>
+    <t>903972025</t>
+  </si>
+  <si>
+    <t>900122025</t>
+  </si>
+  <si>
+    <t>900382025</t>
+  </si>
+  <si>
+    <t>900622025</t>
+  </si>
+  <si>
+    <t>900152025</t>
+  </si>
+  <si>
+    <t>900482025</t>
+  </si>
+  <si>
+    <t>901012025</t>
+  </si>
+  <si>
+    <t>910052025</t>
+  </si>
+  <si>
+    <t>901462025</t>
+  </si>
+  <si>
+    <t>900012025</t>
+  </si>
+  <si>
+    <t>900692025</t>
+  </si>
+  <si>
+    <t>900072025</t>
+  </si>
+  <si>
+    <t>900022025</t>
+  </si>
+  <si>
+    <t>901922025</t>
+  </si>
+  <si>
+    <t>900332025</t>
+  </si>
+  <si>
+    <t>901082025</t>
+  </si>
+  <si>
+    <t>900112025</t>
+  </si>
+  <si>
+    <t>901692025</t>
+  </si>
+  <si>
+    <t>904402025</t>
+  </si>
+  <si>
+    <t>900392025</t>
+  </si>
+  <si>
+    <t>900252025</t>
+  </si>
+  <si>
     <t>MINISTÉRIO DOS TRANSPORTES / Departamento Nacional de Infraestrutura de Transportes / 11ª Unidade de Infra-Estrutura Terrestre</t>
   </si>
   <si>
@@ -328,9 +628,6 @@
     <t>PREF.MUN.DE PEDREIRA</t>
   </si>
   <si>
-    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL. DE CIENCIAS E ENGEN.-C.TUPA</t>
-  </si>
-  <si>
     <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-HOSPITAL UNIVERSITÁRIO - USP</t>
   </si>
   <si>
@@ -373,106 +670,388 @@
     <t>CONSORCIO INTERMUNICIPAL DA REDE DE URGÊNCIA DO SUDOESTE DO PARANÁ - CIRUSP / AR PR</t>
   </si>
   <si>
-    <t>U_393020_E_903182025_C_MINISTÉRIO_DOS_TRANSPORTES___Departamento_Nacional_de_Infraestrutura_de_Transportes___11ª_Unidade_de_Infra-Estrutura_Terrestre_23-09-2025_11h00m.zip</t>
-  </si>
-  <si>
-    <t>U_925373_E_902552025_C_GOVERNO_DO_ESTADO_DE_RONDONIA___Superintendência_Estadual_de_Compras_e_Licitações_19-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_985473_E_900612025_C_PREFEITURA_MUNICIPAL_DE_CRUZEIRO_DO_IGUAÇU_PR_22-09-2025_08h00m.zip</t>
-  </si>
-  <si>
-    <t>U_982051_E_960412025_C_Governo_do_Estado_da_Paraíba___PREFEITURA_MUNICIPAL_DE_JOÃO_PESSOA_PB_22-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_985661_E_900202025_C_PREFEITURA_MUNICIPAL_DE_JERÔNIMO_MONTEIRO_ES_26-09-2025_08h30m.zip</t>
-  </si>
-  <si>
-    <t>U_254501_E_900202025_C_MINISTÉRIO_DA_SAÚDE___FUNDAÇÃO_OSWALDO_CRUZ___INSTITUTO_DE_CIÊNCIA_E_TEC__EM_BIOMODELOS_18-09-2025_09h30m.zip</t>
-  </si>
-  <si>
-    <t>U_765720_E_900222025_C_MINISTÉRIO_DA_DEFESA___COMANDO_DA_MARINHA___Hospital_Naval_Marcilio_Dias_18-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_925848_E_900732025_C_Fundação_de_Amparo_e_Desenvolvimento_da_Pesquisa_18-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_380167_E_900142025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-PENIT__JOAO_B__DE_SANTANA_19-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_380247_E_900262025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-DEPARTAMENTO_DE_ADMINISTRACAO__ADM_PENIT3_18-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_180310_E_900132025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SEGURANCA_PUBLICA___ESP-DELEG_SECC_POLICIA_DE_CATANDUVA_19-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_90102_E_903062025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-COORD__GERAL_ADMINIST__-_CGA_19-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_90145_E_900582025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CAIS_-_PROF__CANTIDIO_DE_MOURA_CAMPOS_19-09-2025_08h00m.zip</t>
-  </si>
-  <si>
-    <t>U_153019_E_900092025_C_MINISTÉRIO_DA_EDUCAÇÃO___Universidade_Tecnológica_Federal_do_Paraná_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_927190_E_900142025_C_Governo_do_Estado_de_Mato_Grosso___SERVIÇO_DE_SANEAMENTO_AMBIENTAL_ÁGUAS_DO_PANTANAL_17-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_928576_E_900862025_C_SERVIÇO_AUTONOMO_MUNICIPAL_DE_AGUA_E_ESGOTO_29-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_157249_E_900032025_C_MINISTÉRIO_DA_EDUCAÇÃO___Hospital_Universitário_da_Universidade_Federal_de_Roraima_17-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_453330_E_900432025_C_PREFEITURA_DA_ESTANCIA_HIDROMINERAL_DE_POA_ESTADO_DE_SAO_PAULO_19-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_986843_E_900292025_C_PREF_MUN_DE_PEDREIRA_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_102328_E_900132025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-UNESP-FACUL__DE_CIENCIAS_E_ENGEN_-C_TUPA_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_102150_E_902292025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_CIENCIA_TECNOL_E_INOVAÇÃO___ESP-HOSPITAL_UNIVERSITÁRIO_-_USP_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_982929_E_900032025_C_Prefeitura_Municipal_de_Marechal_Floriano_ES_17-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_180196_E_900262025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SEGURANCA_PUBLICA___ESP-COMANDO_DE_POLICIAMENTO_DE_TRANSITO_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_453747_E_900282025_C_Governo_do_Estado_do_Maranhão___DEFENSORIA_PUBLICA_DO_ESTADO_MARANHÃO_23-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_927317_E_900342025_C_SERVIÇO_AUTÔNOMO_DE_ÁGUA_E_ESGOTO_DE_ITAUNA_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_987663_E_900802025_C_PREFEITURA_MUNICIPAL_DE_LOANDA_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_158154_E_906062025_C_MINISTÉRIO_DA_EDUCAÇÃO___INSTITUTO_FEDERAL_DE_EDUCAÇÃO__CIÊNCIA_E_TECNOLOGIA_DE_SÃO_PAULO_18-09-2025_09h30m.zip</t>
-  </si>
-  <si>
-    <t>U_987837_E_900642025_C_PREFEITURA_MUNICIPAL_DO_SALTO_DO_LONTRA_PR_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_985825_E_900282025_C_PREFEITURA_MUNICIPAL_DE_CASIMIRO_DE_ABREU_19-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_927492_E_900262025_C_FUNDO_MUNICIAL_DE_SAUDE_DE_VASSOURAS_RJ_17-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_985801_E_900572025_C_PREFEITURA_MUNICIPAL_DE_ANGRA_DOS_REIS_17-09-2025_10h00m.zip</t>
-  </si>
-  <si>
-    <t>U_380271_E_900162025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DE_ADMINISTRACAO_PENITENCIARIA___ESP-PENIT__DE_LIMEIRA_16-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_90173_E_900762025_C_GOVERNO_DO_ESTADO_DE_SÃO_PAULO___ESP-SECRETARIA_DA_SAUDE___ESP-CTO_ATENCAO_INTEGRADA_SAUDE_MENTAL-P_PINE_18-09-2025_09h00m.zip</t>
-  </si>
-  <si>
-    <t>U_926720_E_900162025_C_CONSORCIO_INTERMUNICIPAL_DA_REDE_DE_URGÊNCIA_DO_SUDOESTE_DO_PARANÁ_-_CIRUSP___AR_PR_18-09-2025_08h00m.zip</t>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-COMANDO DE POLICIAMENTO AMBIENTAL(CPAMB)</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE ESTADO INDÚSTRIA, CIÊNCIA E TECNOLOGIA-AC</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE CUIABÁ</t>
+  </si>
+  <si>
+    <t>TRIBUNAL DE CONTAS DO ESTADO DE SERGIPE</t>
+  </si>
+  <si>
+    <t>PREFEITURA DO MUNICÍPIO DE PORECATU</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SANTA MARIA/RS</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE PIRANGA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Secretaria de Organização Institucional / Hospital das Forças Armadas</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Leste / 1ºBatalhão de Guardas</t>
+  </si>
+  <si>
+    <t>Universidade do Estado do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>EMPRESA DE TECNOLOGIA DE INFORMACAO DO ESTADO DO PIAUI S/A - ETIPI</t>
+  </si>
+  <si>
+    <t>Polícia Militar do Pará</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-ESCOLA DE COMUNICAÇÕES E ARTES - USP</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT. ´VANDERLEI T. MONTEIRO´, TUPI PAUL</t>
+  </si>
+  <si>
+    <t>SECRETAIA-GERAL DE GOVERNO - SGG / Assembleia Legislativa do Estado do Tocantins</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Rio de Janeiro / PREFEITURA MUNICIPAL DE BOM JESUS DO ITABAPOANA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / GRUPAMENTO DE APOIO DO DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>Centro Universitário Norte Do Espirito Santo</t>
+  </si>
+  <si>
+    <t>CONSORCIO INTERMUNICIPAL DE SAÚDE DO MEDIO PARANAPANEMA/PR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-GABINETE DO COORDENADOR SEC. SAUDE 1</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-HOSP. CLIN FAC. MED. MARILIA - HC FAMEMA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Nordeste / 6ª Região Militar / Parque Regional de Manutenção</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACULDADE DE CIENCIAS-C.BAURU</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO DE APOIO À PESQUISA AO ENSINO E À CULTURA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE MARICA RJ</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE ITAUNA - MG</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARANÁ / PREFEITURA DE TELEMACO BORBA</t>
+  </si>
+  <si>
+    <t>SERVIÇO AUTONOMO DE AGUA E ESGOTO DE JAGUARIUNA/SP</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / Base Aérea de Santa Cruz</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Comando de Operações Navais / Comando do 9º Distrito Naval / Centro de Intendencia da Marinha em Manaus</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Leste / 1ªDivisão de Exército / GUEs/9ªBrigada de Infantaria Motorizada / Batalhao Escola de Comunicações</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Planalto / Comando 3ª Brigada de Infataria Motorizada</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-HOSP. STA.TEREZA, RIB.PRETO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando da Aeronáutica / GRUPAMENTO DE APOIO DE BELÉM</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE UMIRIM / FUNDO MUNICIPAL DE EDUCAÇÃO DE LIMOEIRO/PE</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL.DE ODONTOLOGIA-C.ARARAQUARA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Secretaria Executiva / Subsecretaria de Planejamento e Orçamento / Instituto Federal de Educação, Ciência e Tecnologia do Maranhão / Campus Caxias</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Santa Catarina / Pró-Reitoria de Administração</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SAO DOMINGOS DO AZEITAO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 5ª Região Militar / 14ªBrigada de Infantaria Motorizada / 28ºGrupo de Artilharia de Campanha</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar da Amazônia / 23ª Brigada de Infantaria de Selva / 53º Batalhão de Infantaria de Selva</t>
+  </si>
+  <si>
+    <t>ASSOCIAÇAO DE APOIO AO COLEGIO ESTADUAL JOAQUINA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>Secretaria de Estado da Fazenda</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-CAIS - CLEMENTE FERREIRA, LINS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-ESCOLA DE ARTES CIÊNCIAS E HUMAN- USP</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-GABINETE DO SECRETARIO E ASSES.SEC.S.PUBL</t>
+  </si>
+  <si>
+    <t>U_393020_E_903182025_23-09-2025_11h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925373_E_902552025_19-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985473_E_900612025_22-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_982051_E_960412025_22-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985661_E_900202025_26-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_254501_E_900202025_18-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_765720_E_900222025_18-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925848_E_900732025_18-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380167_E_900142025_19-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380247_E_900262025_18-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180310_E_900132025_19-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90102_E_903062025_19-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90145_E_900582025_19-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153019_E_900092025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927190_E_900142025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928576_E_900862025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_157249_E_900032025_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453330_E_900432025_19-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986843_E_900292025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102150_E_902292025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_982929_E_900032025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180196_E_900262025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453747_E_900282025_23-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927317_E_900342025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987663_E_900802025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158154_E_906062025_18-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_987837_E_900642025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985825_E_900282025_19-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927492_E_900262025_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985801_E_900572025_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380271_E_900162025_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90173_E_900762025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926720_E_900162025_18-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180198_E_900272025_16-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927996_E_904492025_17-09-2025_09h15m.zip</t>
+  </si>
+  <si>
+    <t>U_931102_E_900052025_18-09-2025_15h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453737_E_900102025_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987779_E_900352025_16-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_988841_E_900662025_16-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_985015_E_900612025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_112408_E_900372025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160253_E_900082025_15-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925974_E_903972025_17-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929895_E_900122025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925809_E_900382025_19-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102123_E_900622025_14-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380231_E_900152025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926181_E_900102025_17-09-2025_14h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926181_E_900092025_16-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_985811_E_900482025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120625_E_901012025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153049_E_910052025_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_461414_E_900152025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90112_E_900032025_12-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_92601_E_901462025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160040_E_900122025_18-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_102333_E_900012025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453714_E_900152025_25-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_985853_E_900222025_15-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_984675_E_900692025_17-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_987915_E_900662025_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_932929_E_900072025_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120669_E_900282025_11-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_788820_E_900082025_18-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_160251_E_900022025_11-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160100_E_900132025_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90102_E_901922025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90129_E_900332025_15-09-2025_11h00m.zip</t>
+  </si>
+  <si>
+    <t>U_120628_E_901082025_12-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928341_E_900112025_11-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102305_E_900072025_11-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158456_E_900032025_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153163_E_901692025_11-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_980228_E_900082025_17-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160441_E_900082025_15-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_160167_E_900102025_10-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928709_E_900012025_15-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_927996_E_904402025_15-09-2025_09h15m.zip</t>
+  </si>
+  <si>
+    <t>U_925743_E_900142025_11-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_90147_E_900392025_10-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102168_E_900032025_16-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180101_E_900252025_11-09-2025_08h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,19 +1443,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -884,19 +1463,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -904,19 +1483,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -924,619 +1503,1579 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" t="s">
+        <v>248</v>
+      </c>
+      <c r="F66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
         <v>118</v>
       </c>
-      <c r="F35" t="s">
-        <v>152</v>
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
+        <v>252</v>
+      </c>
+      <c r="F71" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" t="s">
+        <v>253</v>
+      </c>
+      <c r="F72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" t="s">
+        <v>255</v>
+      </c>
+      <c r="F74" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" t="s">
+        <v>257</v>
+      </c>
+      <c r="F76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" t="s">
+        <v>258</v>
+      </c>
+      <c r="F77" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" t="s">
+        <v>219</v>
+      </c>
+      <c r="F79" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>260</v>
+      </c>
+      <c r="F80" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" t="s">
+        <v>262</v>
+      </c>
+      <c r="F82" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="389">
   <si>
     <t>Timestamp</t>
   </si>
@@ -40,6 +40,9 @@
     <t>2025-09-09 16:22:44</t>
   </si>
   <si>
+    <t>2025-09-10 10:47:50</t>
+  </si>
+  <si>
     <t>23/09/2025 - 11:00</t>
   </si>
   <si>
@@ -169,6 +172,24 @@
     <t>10/09/2025 - 09:00</t>
   </si>
   <si>
+    <t>03/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>19/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>19/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>19/09/2025 - 14:00</t>
+  </si>
+  <si>
+    <t>23/10/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>22/09/2025 - 13:00</t>
+  </si>
+  <si>
     <t>393020</t>
   </si>
   <si>
@@ -406,6 +427,36 @@
     <t>180101</t>
   </si>
   <si>
+    <t>168006</t>
+  </si>
+  <si>
+    <t>988579</t>
+  </si>
+  <si>
+    <t>154039</t>
+  </si>
+  <si>
+    <t>925964</t>
+  </si>
+  <si>
+    <t>103101</t>
+  </si>
+  <si>
+    <t>926241</t>
+  </si>
+  <si>
+    <t>926632</t>
+  </si>
+  <si>
+    <t>389092</t>
+  </si>
+  <si>
+    <t>102328</t>
+  </si>
+  <si>
+    <t>983389</t>
+  </si>
+  <si>
     <t>903182025</t>
   </si>
   <si>
@@ -571,6 +622,21 @@
     <t>900252025</t>
   </si>
   <si>
+    <t>900822025</t>
+  </si>
+  <si>
+    <t>900232025</t>
+  </si>
+  <si>
+    <t>902562025</t>
+  </si>
+  <si>
+    <t>900742025</t>
+  </si>
+  <si>
+    <t>900812025</t>
+  </si>
+  <si>
     <t>MINISTÉRIO DOS TRANSPORTES / Departamento Nacional de Infraestrutura de Transportes / 11ª Unidade de Infra-Estrutura Terrestre</t>
   </si>
   <si>
@@ -808,6 +874,36 @@
     <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-GABINETE DO SECRETARIO E ASSES.SEC.S.PUBL</t>
   </si>
   <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Industria de Material Belico do Brasil/FJF/MG</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CAMPO NOVO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Fundação Universidade do Amazonas</t>
+  </si>
+  <si>
+    <t>SECRETAIA-GERAL DE GOVERNO - SGG / Secretaria da Fazenda / Instituto de Desenvolvimento Rural do Estado do Tocantins</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-INSTITUTO DE PESQUISA TECNOLOGICA DO ESTADO DE SAO PAULO S.A.</t>
+  </si>
+  <si>
+    <t>Empresa de Assistencia Tecnica e Extensão Rural - Emater-DF</t>
+  </si>
+  <si>
+    <t>SECRETAIA-GERAL DE GOVERNO - SGG / conselho de arquitetura e urbanismo do tocantins - cau/to</t>
+  </si>
+  <si>
+    <t>Conselho Regional de Engenharia e Agronomia do Rio Grande do Sul/CREA-RS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL. DE CIENCIAS E ENGEN.-C.TUPA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE BROTAS DE MACAÚBAS/BA</t>
+  </si>
+  <si>
     <t>U_393020_E_903182025_23-09-2025_11h00m.zip</t>
   </si>
   <si>
@@ -1052,6 +1148,39 @@
   </si>
   <si>
     <t>U_180101_E_900252025_11-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_168006_E_900822025_03-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_988579_E_900232025_19-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_154039_E_902562025_19-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925848_E_900742025_19-09-2025_14h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925964_E_900812025_19-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_103101_E_900332025_22-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926241_E_900102025_23-10-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_926632_E_900032025_22-09-2025_13h00m.zip</t>
+  </si>
+  <si>
+    <t>U_389092_E_900202025_19-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102328_E_900132025_18-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_983389_E_900332025_16-09-2025_09h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1443,19 +1572,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1463,19 +1592,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1483,19 +1612,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1503,19 +1632,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1523,19 +1652,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1543,19 +1672,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1563,19 +1692,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1583,19 +1712,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1603,19 +1732,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1623,19 +1752,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1643,19 +1772,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1663,19 +1792,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1683,19 +1812,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1703,19 +1832,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1723,19 +1852,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1743,19 +1872,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1763,19 +1892,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1783,19 +1912,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1803,19 +1932,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F20" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1823,19 +1952,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1843,19 +1972,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F22" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1863,19 +1992,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1883,19 +2012,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1903,19 +2032,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F25" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1923,19 +2052,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F26" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1943,19 +2072,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1963,19 +2092,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1983,19 +2112,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2003,19 +2132,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2023,19 +2152,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2043,19 +2172,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2063,19 +2192,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2083,19 +2212,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2103,19 +2232,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2123,19 +2252,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2143,19 +2272,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="F37" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2163,19 +2292,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2183,19 +2312,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2203,19 +2332,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E40" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2223,19 +2352,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2243,19 +2372,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F42" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2263,19 +2392,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2283,19 +2412,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2303,19 +2432,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2323,19 +2452,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2343,19 +2472,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2363,19 +2492,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2383,19 +2512,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F49" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2403,19 +2532,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F50" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2423,19 +2552,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F51" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2443,19 +2572,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2463,19 +2592,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F53" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2483,19 +2612,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F54" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2503,19 +2632,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2523,19 +2652,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F56" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2543,19 +2672,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F57" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2563,19 +2692,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F58" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2583,19 +2712,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F59" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2603,19 +2732,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F60" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2623,19 +2752,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="F61" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2643,19 +2772,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F62" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2663,19 +2792,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F63" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2683,19 +2812,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2703,19 +2832,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2723,19 +2852,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="F66" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2743,19 +2872,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F67" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2763,19 +2892,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2783,19 +2912,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2803,19 +2932,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D70" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2823,19 +2952,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2843,19 +2972,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2863,19 +2992,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2883,19 +3012,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E74" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="F74" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2903,19 +3032,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F75" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2923,19 +3052,19 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2943,19 +3072,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E77" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2963,19 +3092,19 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="F78" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2983,19 +3112,19 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3003,19 +3132,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E80" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3023,19 +3152,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="F81" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3043,19 +3172,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3063,19 +3192,239 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="F83" t="s">
-        <v>345</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" t="s">
+        <v>287</v>
+      </c>
+      <c r="F85" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" t="s">
+        <v>288</v>
+      </c>
+      <c r="F86" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88" t="s">
+        <v>289</v>
+      </c>
+      <c r="F88" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" t="s">
+        <v>195</v>
+      </c>
+      <c r="E89" t="s">
+        <v>290</v>
+      </c>
+      <c r="F89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E90" t="s">
+        <v>291</v>
+      </c>
+      <c r="F90" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>292</v>
+      </c>
+      <c r="F91" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" t="s">
+        <v>156</v>
+      </c>
+      <c r="E93" t="s">
+        <v>294</v>
+      </c>
+      <c r="F93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" t="s">
+        <v>295</v>
+      </c>
+      <c r="F94" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="474">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,6 +43,12 @@
     <t>2025-09-10 10:47:50</t>
   </si>
   <si>
+    <t>2025-09-11 08:48:42</t>
+  </si>
+  <si>
+    <t>2025-09-12 11:31:27</t>
+  </si>
+  <si>
     <t>23/09/2025 - 11:00</t>
   </si>
   <si>
@@ -190,6 +196,39 @@
     <t>22/09/2025 - 13:00</t>
   </si>
   <si>
+    <t>24/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>23/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>25/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>22/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>25/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>01/10/2025 - 13:15</t>
+  </si>
+  <si>
+    <t>22/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>23/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>23/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>01/10/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>24/09/2025 - 09:00</t>
+  </si>
+  <si>
     <t>393020</t>
   </si>
   <si>
@@ -457,6 +496,72 @@
     <t>983389</t>
   </si>
   <si>
+    <t>925092</t>
+  </si>
+  <si>
+    <t>925892</t>
+  </si>
+  <si>
+    <t>980788</t>
+  </si>
+  <si>
+    <t>987723</t>
+  </si>
+  <si>
+    <t>452286</t>
+  </si>
+  <si>
+    <t>102309</t>
+  </si>
+  <si>
+    <t>90107</t>
+  </si>
+  <si>
+    <t>926605</t>
+  </si>
+  <si>
+    <t>791181</t>
+  </si>
+  <si>
+    <t>928294</t>
+  </si>
+  <si>
+    <t>158125</t>
+  </si>
+  <si>
+    <t>930213</t>
+  </si>
+  <si>
+    <t>180202</t>
+  </si>
+  <si>
+    <t>925458</t>
+  </si>
+  <si>
+    <t>130058</t>
+  </si>
+  <si>
+    <t>160250</t>
+  </si>
+  <si>
+    <t>731050</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>180189</t>
+  </si>
+  <si>
+    <t>180207</t>
+  </si>
+  <si>
+    <t>450161</t>
+  </si>
+  <si>
+    <t>714000</t>
+  </si>
+  <si>
     <t>903182025</t>
   </si>
   <si>
@@ -637,6 +742,21 @@
     <t>900812025</t>
   </si>
   <si>
+    <t>900472025</t>
+  </si>
+  <si>
+    <t>900542025</t>
+  </si>
+  <si>
+    <t>906692025</t>
+  </si>
+  <si>
+    <t>901732025</t>
+  </si>
+  <si>
+    <t>904132025</t>
+  </si>
+  <si>
     <t>MINISTÉRIO DOS TRANSPORTES / Departamento Nacional de Infraestrutura de Transportes / 11ª Unidade de Infra-Estrutura Terrestre</t>
   </si>
   <si>
@@ -904,6 +1024,72 @@
     <t>PREFEITURA MUNICIPAL DE BROTAS DE MACAÚBAS/BA</t>
   </si>
   <si>
+    <t>PMSP - PREFEITURA MUNICIPAL DE SAO PAULO / PMSP - Subprefeitura Vila Mariana</t>
+  </si>
+  <si>
+    <t>Procuradoria Geral da Justiça de Tocantins</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE TANGUÁ/RJ</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE NOVA FÁTIMA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE RONDONIA / PREFEITURA MUNICIPAL DE BURITIS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACULARQUIT,ARTES E COMUM.-C.BAURU</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-CTO. VIGILANCIA SANITARIA</t>
+  </si>
+  <si>
+    <t>Governo do Estado de Mato Grosso do Sul / defensoria pública geral do estado do mato grosso do sul</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Centro de Intendencia da Marinha em São Pedro da Aldeia</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE TRANSPORTES E TRANSITO DE FOZ DO IGUAÇU</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Secretaria de Educação Media e Tecnológica / Instituto Federal de Educação, Ciencia e Tecnologia Catarinense</t>
+  </si>
+  <si>
+    <t>FUNDO MUNICIPAL DE SAÚDE DE JOÃO PESSOA/PB</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-ESCOLA SUPER. BOMBEIROS CEL.PAULO MARQUES</t>
+  </si>
+  <si>
+    <t>Tribunal de Contas do Estado de Roraima</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA AGRICULTURA, PECUÁRIA E ABASTECIMENTO / Secretaria de Defesa Agropecuária / Coordenação Geral de Apoio Laboratorial / LABORATÓRIO FEDERAL DE DEFESA AGROPECURIO/MG / Unidade em Pedro Leop</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / COMANDO DA 3ª DIVISÃO DO EXÉRCITO - BASE ADMINISTRATIVA DA GUARNIÇÃO DE SAN / TA MARIA / 1ªBatalhão de Comunicações Divisionário</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Comando Geral do Corpo de Fuzileiros Navais / Batalhão Naval</t>
+  </si>
+  <si>
+    <t>PODER LEGISLATIVO / Câmara dos Deputados</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-COM.POLIC.AREA METROP-5</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-8. GRUPAMENTO DE BOMBEIROS (8.GB)</t>
+  </si>
+  <si>
+    <t>UNIVERSIDADE ESTADUAL DE CAMPINAS</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Centro de Inteligência da Marinha</t>
+  </si>
+  <si>
     <t>U_393020_E_903182025_23-09-2025_11h00m.zip</t>
   </si>
   <si>
@@ -1181,6 +1367,75 @@
   </si>
   <si>
     <t>U_983389_E_900332025_16-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925092_E_900082025_24-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925892_E_900252025_23-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_980788_E_900352025_23-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987723_E_900472025_22-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_452286_E_900542025_25-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928341_E_900152025_22-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102309_E_906692025_22-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90107_E_900102025_25-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926605_E_900122025_01-10-2025_13h15m.zip</t>
+  </si>
+  <si>
+    <t>U_791181_E_900112025_22-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_928294_E_900102025_26-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_158125_E_900802025_22-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930213_E_900542025_23-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180202_E_900082025_15-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925458_E_900132025_23-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_130058_E_901732025_23-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_160250_E_900072025_23-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_731050_E_900162025_01-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_10001_E_900612025_23-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180189_E_900152025_25-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180207_E_900032025_24-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_450161_E_904132025_25-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_714000_E_900012025_23-09-2025_10h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,19 +1827,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1592,19 +1847,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1612,19 +1867,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1632,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1652,19 +1907,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1672,19 +1927,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1692,19 +1947,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1712,19 +1967,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1732,19 +1987,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1752,19 +2007,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1772,19 +2027,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1792,19 +2047,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1812,19 +2067,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1832,19 +2087,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1852,19 +2107,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1872,19 +2127,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1892,19 +2147,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1912,19 +2167,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="F19" t="s">
-        <v>313</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1932,19 +2187,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="F20" t="s">
-        <v>314</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1952,19 +2207,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1972,19 +2227,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F22" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1992,19 +2247,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F23" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2012,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2032,19 +2287,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2052,19 +2307,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2072,19 +2327,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2092,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2112,19 +2367,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="F29" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2132,19 +2387,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2152,19 +2407,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>325</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2172,19 +2427,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2192,19 +2447,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="F33" t="s">
-        <v>327</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2212,19 +2467,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E34" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F34" t="s">
-        <v>328</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2232,19 +2487,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2252,19 +2507,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="F36" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2272,19 +2527,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="F37" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2292,19 +2547,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2312,19 +2567,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2332,19 +2587,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F40" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2352,19 +2607,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="F41" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2372,19 +2627,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2392,19 +2647,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2412,19 +2667,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E44" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2432,19 +2687,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2452,19 +2707,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2472,19 +2727,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2492,19 +2747,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2512,19 +2767,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2532,19 +2787,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2552,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>345</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2572,19 +2827,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2592,19 +2847,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2612,19 +2867,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2632,19 +2887,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2652,19 +2907,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F56" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2672,19 +2927,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F57" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2692,19 +2947,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="F58" t="s">
-        <v>352</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2712,19 +2967,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2732,19 +2987,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E60" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2752,19 +3007,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="F61" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2772,19 +3027,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="F62" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2792,19 +3047,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="F63" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2812,19 +3067,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="F64" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2832,19 +3087,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="F65" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2852,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2872,19 +3127,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2892,19 +3147,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2912,19 +3167,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2932,19 +3187,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="F70" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2952,19 +3207,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="F71" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2972,19 +3227,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="E72" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="F72" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2992,19 +3247,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="F73" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3012,19 +3267,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3032,19 +3287,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="F75" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3052,19 +3307,19 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="F76" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3072,19 +3327,19 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F77" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3092,19 +3347,19 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="F78" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3112,19 +3367,19 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="F79" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3132,19 +3387,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3152,19 +3407,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="F81" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3172,19 +3427,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3192,19 +3447,19 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3212,19 +3467,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="F84" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3232,19 +3487,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="F85" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3252,19 +3507,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="F86" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3272,19 +3527,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="F87" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3292,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E88" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="F88" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3312,19 +3567,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="F89" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3332,19 +3587,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="F90" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3352,19 +3607,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="F91" t="s">
-        <v>385</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3372,19 +3627,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="F92" t="s">
-        <v>386</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3392,19 +3647,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D93" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="F93" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3412,19 +3667,479 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E94" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="F94" t="s">
-        <v>388</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>160</v>
+      </c>
+      <c r="D95" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" t="s">
+        <v>336</v>
+      </c>
+      <c r="F95" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" t="s">
+        <v>337</v>
+      </c>
+      <c r="F96" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" t="s">
+        <v>338</v>
+      </c>
+      <c r="F97" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" t="s">
+        <v>242</v>
+      </c>
+      <c r="E98" t="s">
+        <v>339</v>
+      </c>
+      <c r="F98" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" t="s">
+        <v>340</v>
+      </c>
+      <c r="F99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" t="s">
+        <v>314</v>
+      </c>
+      <c r="F100" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" t="s">
+        <v>342</v>
+      </c>
+      <c r="F102" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D103" t="s">
+        <v>217</v>
+      </c>
+      <c r="E103" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E104" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" t="s">
+        <v>346</v>
+      </c>
+      <c r="F106" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" t="s">
+        <v>243</v>
+      </c>
+      <c r="E107" t="s">
+        <v>347</v>
+      </c>
+      <c r="F107" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
+      </c>
+      <c r="E108" t="s">
+        <v>348</v>
+      </c>
+      <c r="F108" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" t="s">
+        <v>349</v>
+      </c>
+      <c r="F109" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" t="s">
+        <v>245</v>
+      </c>
+      <c r="E110" t="s">
+        <v>350</v>
+      </c>
+      <c r="F110" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" t="s">
+        <v>175</v>
+      </c>
+      <c r="D111" t="s">
+        <v>227</v>
+      </c>
+      <c r="E111" t="s">
+        <v>351</v>
+      </c>
+      <c r="F111" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" t="s">
+        <v>206</v>
+      </c>
+      <c r="E112" t="s">
+        <v>352</v>
+      </c>
+      <c r="F112" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D113" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113" t="s">
+        <v>353</v>
+      </c>
+      <c r="F113" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" t="s">
+        <v>178</v>
+      </c>
+      <c r="D114" t="s">
+        <v>220</v>
+      </c>
+      <c r="E114" t="s">
+        <v>354</v>
+      </c>
+      <c r="F114" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" t="s">
+        <v>196</v>
+      </c>
+      <c r="E115" t="s">
+        <v>355</v>
+      </c>
+      <c r="F115" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>356</v>
+      </c>
+      <c r="F116" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" t="s">
+        <v>357</v>
+      </c>
+      <c r="F117" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="401">
   <si>
     <t>Timestamp</t>
   </si>
@@ -40,6 +40,9 @@
     <t>2025-09-14 10:07:12</t>
   </si>
   <si>
+    <t>2025-09-15 20:40:13</t>
+  </si>
+  <si>
     <t>23/09/2025 - 10:00</t>
   </si>
   <si>
@@ -163,6 +166,42 @@
     <t>15/09/2025 - 08:00</t>
   </si>
   <si>
+    <t>25/09/2025 - 13:30</t>
+  </si>
+  <si>
+    <t>29/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>24/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>26/09/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>26/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>01/10/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>29/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>25/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>06/10/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>26/09/2025 - 08:15</t>
+  </si>
+  <si>
+    <t>25/09/2025 - 13:00</t>
+  </si>
+  <si>
     <t>925458</t>
   </si>
   <si>
@@ -382,6 +421,63 @@
     <t>380231</t>
   </si>
   <si>
+    <t>925814</t>
+  </si>
+  <si>
+    <t>90029</t>
+  </si>
+  <si>
+    <t>462264</t>
+  </si>
+  <si>
+    <t>925872</t>
+  </si>
+  <si>
+    <t>926002</t>
+  </si>
+  <si>
+    <t>990138</t>
+  </si>
+  <si>
+    <t>90166</t>
+  </si>
+  <si>
+    <t>90141</t>
+  </si>
+  <si>
+    <t>380195</t>
+  </si>
+  <si>
+    <t>250103</t>
+  </si>
+  <si>
+    <t>980230</t>
+  </si>
+  <si>
+    <t>987971</t>
+  </si>
+  <si>
+    <t>986727</t>
+  </si>
+  <si>
+    <t>930260</t>
+  </si>
+  <si>
+    <t>160327</t>
+  </si>
+  <si>
+    <t>925474</t>
+  </si>
+  <si>
+    <t>987489</t>
+  </si>
+  <si>
+    <t>925611</t>
+  </si>
+  <si>
+    <t>158161</t>
+  </si>
+  <si>
     <t>900132025</t>
   </si>
   <si>
@@ -535,6 +631,36 @@
     <t>900622025</t>
   </si>
   <si>
+    <t>900062025</t>
+  </si>
+  <si>
+    <t>901712025</t>
+  </si>
+  <si>
+    <t>904102025</t>
+  </si>
+  <si>
+    <t>900682025</t>
+  </si>
+  <si>
+    <t>900172025</t>
+  </si>
+  <si>
+    <t>901132025</t>
+  </si>
+  <si>
+    <t>931242025</t>
+  </si>
+  <si>
+    <t>900362025</t>
+  </si>
+  <si>
+    <t>901072025</t>
+  </si>
+  <si>
+    <t>900182025</t>
+  </si>
+  <si>
     <t>Tribunal de Contas do Estado de Roraima</t>
   </si>
   <si>
@@ -754,6 +880,63 @@
     <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT. ´VANDERLEI T. MONTEIRO´, TUPI PAUL</t>
   </si>
   <si>
+    <t>Tribunal de Justiça do Estado de Tocantins</t>
+  </si>
+  <si>
+    <t>PODER JUDICIÁRIO / Tribunal Regional Federal / TRIBUNAL REGIONAL FEDERAL DA 3ª REGIÃO</t>
+  </si>
+  <si>
+    <t>ESCOLA DE GOVERNANÇA PÚBLICA DO ESTADO DO PARÁ</t>
+  </si>
+  <si>
+    <t>Secretaria de Estado de Assistência e Desenvolvimento Social</t>
+  </si>
+  <si>
+    <t>Departamento Estadual de Trânsito</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE AGRICULTURA E ABASTECIMENTO / ESP-COORD. ASSISTENCIA TEC. INTEGRAL - CATI</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-HOSP.REG.DR.O.F.COELHO,EM F.DE VASCONCELO</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SAUDE / ESP-HOSP. GUILHERME ALVARO, SANTOS</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-PENIT.´AEVP JAIR GUIMAR DE LIMA´ DE POTIM</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA SAÚDE / Nucleo Estadual do Rio de Janeiro / Hospital Geral de Ipanema</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SÃO FRANCISCO DO BREJÃO/MA</t>
+  </si>
+  <si>
+    <t>PEFEITURA MUNICIPAL DE SANTA HELENA/PR</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE MONTE ALTO/SP</t>
+  </si>
+  <si>
+    <t>Fundação de Parques Municipais e Zoobotânica</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Secretaria de Ciência e Tecnologia / Instituto Militar de Engenharia</t>
+  </si>
+  <si>
+    <t>Tribunal de Contas do Estado da Bahia</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CAPITÃO LEÔNIDAS MARQUES/PR</t>
+  </si>
+  <si>
+    <t>Universidade Estadual do Pará</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Itajubá / Universidade Federal de Itajubá/Campus Itabira</t>
+  </si>
+  <si>
     <t>U_925458_E_900132025_23-09-2025_10h00m.zip</t>
   </si>
   <si>
@@ -974,6 +1157,66 @@
   </si>
   <si>
     <t>U_380231_E_900152025_15-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925814_E_900582025_25-09-2025_13h30m.zip</t>
+  </si>
+  <si>
+    <t>U_90029_E_900142025_29-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_462264_E_900062025_30-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925872_E_900132025_24-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926002_E_900292025_26-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_990138_E_900082025_26-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90166_E_901712025_29-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_90141_E_904102025_01-10-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380195_E_900232025_25-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_250103_E_900682025_25-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_980230_E_900172025_29-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987971_E_900432025_25-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986727_E_901132025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930260_E_931242025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160327_E_900282025_24-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925474_E_900362025_06-10-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925458_E_900142025_25-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987489_E_901072025_26-09-2025_08h15m.zip</t>
+  </si>
+  <si>
+    <t>U_925611_E_900182025_25-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158161_E_900092025_25-09-2025_13h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,19 +1608,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1385,19 +1628,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1405,19 +1648,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1425,19 +1668,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1445,19 +1688,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1465,19 +1708,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1485,19 +1728,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1505,19 +1748,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1525,19 +1768,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1545,19 +1788,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1565,19 +1808,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1585,19 +1828,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1605,19 +1848,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1625,19 +1868,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1645,19 +1888,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1665,19 +1908,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1685,19 +1928,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="E18" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1705,19 +1948,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1725,19 +1968,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1745,19 +1988,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1765,19 +2008,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1785,19 +2028,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1805,19 +2048,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1825,19 +2068,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1845,19 +2088,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1865,19 +2108,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1885,19 +2128,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1905,19 +2148,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1925,19 +2168,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1945,19 +2188,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1965,19 +2208,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1985,19 +2228,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2005,19 +2248,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2025,19 +2268,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2045,19 +2288,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2065,19 +2308,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2085,19 +2328,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2105,19 +2348,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2125,19 +2368,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2145,19 +2388,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2165,19 +2408,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2185,19 +2428,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2205,19 +2448,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2225,19 +2468,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2245,19 +2488,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2265,19 +2508,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2285,19 +2528,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2305,19 +2548,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2325,19 +2568,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2345,19 +2588,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2365,19 +2608,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2385,19 +2628,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2405,19 +2648,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2425,19 +2668,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2445,19 +2688,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2465,19 +2708,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2485,19 +2728,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2505,19 +2748,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2525,19 +2768,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2545,19 +2788,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2565,19 +2808,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2585,19 +2828,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2605,19 +2848,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2625,19 +2868,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2645,19 +2888,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2665,19 +2908,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2685,19 +2928,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2705,19 +2948,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="F69" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2725,19 +2968,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="F70" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2745,19 +2988,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2765,19 +3008,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="F72" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2785,19 +3028,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2805,19 +3048,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2825,19 +3068,419 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" t="s">
+        <v>288</v>
+      </c>
+      <c r="F76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" t="s">
+        <v>289</v>
+      </c>
+      <c r="F77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" t="s">
+        <v>291</v>
+      </c>
+      <c r="F79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" t="s">
+        <v>292</v>
+      </c>
+      <c r="F80" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>293</v>
+      </c>
+      <c r="F81" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" t="s">
+        <v>206</v>
+      </c>
+      <c r="E82" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" t="s">
+        <v>297</v>
+      </c>
+      <c r="F85" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" t="s">
+        <v>298</v>
+      </c>
+      <c r="F86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" t="s">
+        <v>299</v>
+      </c>
+      <c r="F87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89" t="s">
+        <v>211</v>
+      </c>
+      <c r="E89" t="s">
+        <v>301</v>
+      </c>
+      <c r="F89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" t="s">
+        <v>302</v>
+      </c>
+      <c r="F90" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" t="s">
+        <v>213</v>
+      </c>
+      <c r="E93" t="s">
+        <v>304</v>
+      </c>
+      <c r="F93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" t="s">
+        <v>214</v>
+      </c>
+      <c r="E94" t="s">
+        <v>305</v>
+      </c>
+      <c r="F94" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" t="s">
+        <v>188</v>
+      </c>
+      <c r="E95" t="s">
+        <v>306</v>
+      </c>
+      <c r="F95" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="434">
   <si>
     <t>Timestamp</t>
   </si>
@@ -43,6 +43,9 @@
     <t>2025-09-15 20:40:13</t>
   </si>
   <si>
+    <t>2025-09-16 10:03:39</t>
+  </si>
+  <si>
     <t>23/09/2025 - 10:00</t>
   </si>
   <si>
@@ -202,6 +205,15 @@
     <t>25/09/2025 - 13:00</t>
   </si>
   <si>
+    <t>01/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 - 14:00</t>
+  </si>
+  <si>
     <t>925458</t>
   </si>
   <si>
@@ -478,6 +490,30 @@
     <t>158161</t>
   </si>
   <si>
+    <t>153176</t>
+  </si>
+  <si>
+    <t>989859</t>
+  </si>
+  <si>
+    <t>154840</t>
+  </si>
+  <si>
+    <t>926475</t>
+  </si>
+  <si>
+    <t>989571</t>
+  </si>
+  <si>
+    <t>102160</t>
+  </si>
+  <si>
+    <t>180224</t>
+  </si>
+  <si>
+    <t>929010</t>
+  </si>
+  <si>
     <t>900132025</t>
   </si>
   <si>
@@ -661,6 +697,18 @@
     <t>900182025</t>
   </si>
   <si>
+    <t>906112025</t>
+  </si>
+  <si>
+    <t>900022025</t>
+  </si>
+  <si>
+    <t>900522025</t>
+  </si>
+  <si>
+    <t>900302025</t>
+  </si>
+  <si>
     <t>Tribunal de Contas do Estado de Roraima</t>
   </si>
   <si>
@@ -937,6 +985,30 @@
     <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Federal de Itajubá / Universidade Federal de Itajubá/Campus Itabira</t>
   </si>
   <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Universidade Tecnológica Federal do Paraná / UTFPR - Campus Cornélio Procópio</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE JABORANDI</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Secretaria Executiva / Subsecretaria de Planejamento e Orçamento / Instituto Federal de Educação, Ciência e Tecnologia do Rio Grande do Norte / Instituto Federal do Rio Grande</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARÁ / MINISTÉRIO PÚBLICO DE CONTAS DO ESTADO DO PARÁ</t>
+  </si>
+  <si>
+    <t>PREF.MUN.DE RIO VERDE</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-INSTITUTO DE FÍSICA DE SÃO CARLOS - USP</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-COM.POLIC.AREA METROP-10</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE PONTE NOVA/MG</t>
+  </si>
+  <si>
     <t>U_925458_E_900132025_23-09-2025_10h00m.zip</t>
   </si>
   <si>
@@ -1217,6 +1289,33 @@
   </si>
   <si>
     <t>U_158161_E_900092025_25-09-2025_13h00m.zip</t>
+  </si>
+  <si>
+    <t>U_153176_E_900162025_25-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158154_E_906112025_25-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_989859_E_900262025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_154840_E_900022025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926475_E_900072025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_989571_E_900522025_01-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102160_E_900062025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180224_E_900302025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929010_E_900062025_30-09-2025_14h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1608,19 +1707,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1628,19 +1727,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1648,19 +1747,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1668,19 +1767,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1688,19 +1787,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1708,19 +1807,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1728,19 +1827,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1748,19 +1847,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1768,19 +1867,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1788,19 +1887,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1808,19 +1907,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1828,19 +1927,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F13" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1848,19 +1947,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1868,19 +1967,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1888,19 +1987,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1908,19 +2007,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1928,19 +2027,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1948,19 +2047,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1968,19 +2067,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1988,19 +2087,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2008,19 +2107,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2028,19 +2127,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F23" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2048,19 +2147,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2068,19 +2167,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F25" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2088,19 +2187,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2108,19 +2207,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2128,19 +2227,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F28" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2148,19 +2247,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2168,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2188,19 +2287,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2208,19 +2307,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2228,19 +2327,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F33" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2248,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2268,19 +2367,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2288,19 +2387,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F36" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2308,19 +2407,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2328,19 +2427,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2348,19 +2447,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2368,19 +2467,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2388,19 +2487,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2408,19 +2507,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2428,19 +2527,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2448,19 +2547,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2468,19 +2567,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2488,19 +2587,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2508,19 +2607,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2528,19 +2627,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F48" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2548,19 +2647,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2568,19 +2667,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F50" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2588,19 +2687,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2608,19 +2707,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2628,19 +2727,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F53" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2648,19 +2747,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2668,19 +2767,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="F55" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2688,19 +2787,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2708,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F57" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2728,19 +2827,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F58" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2748,19 +2847,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E59" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F59" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2768,19 +2867,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2788,19 +2887,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E61" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F61" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2808,19 +2907,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F62" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2828,19 +2927,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F63" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2848,19 +2947,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2868,19 +2967,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2888,19 +2987,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F66" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2908,19 +3007,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2928,19 +3027,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F68" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2948,19 +3047,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F69" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2968,19 +3067,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F70" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2988,19 +3087,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3008,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="E72" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3028,19 +3127,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D73" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F73" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3048,19 +3147,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F74" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3068,19 +3167,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="E75" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F75" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3088,19 +3187,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F76" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3108,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3128,19 +3227,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E78" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F78" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3148,19 +3247,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3168,19 +3267,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3188,19 +3287,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3208,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D82" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3228,19 +3327,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F83" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3248,19 +3347,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F84" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3268,19 +3367,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="E85" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F85" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3288,19 +3387,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E86" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F86" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3308,19 +3407,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E87" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F87" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3328,19 +3427,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E88" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F88" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3348,19 +3447,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F89" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3368,19 +3467,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E90" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F90" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3388,19 +3487,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F91" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3408,19 +3507,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F92" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3428,19 +3527,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3448,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3468,19 +3567,199 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E95" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>400</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" t="s">
+        <v>169</v>
+      </c>
+      <c r="E96" t="s">
+        <v>323</v>
+      </c>
+      <c r="F96" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" t="s">
+        <v>294</v>
+      </c>
+      <c r="F97" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" t="s">
+        <v>324</v>
+      </c>
+      <c r="F98" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D101" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" t="s">
+        <v>217</v>
+      </c>
+      <c r="E102" t="s">
+        <v>328</v>
+      </c>
+      <c r="F102" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D103" t="s">
+        <v>230</v>
+      </c>
+      <c r="E103" t="s">
+        <v>329</v>
+      </c>
+      <c r="F103" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D104" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" t="s">
+        <v>330</v>
+      </c>
+      <c r="F104" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="594">
   <si>
     <t>Timestamp</t>
   </si>
@@ -46,6 +46,15 @@
     <t>2025-09-16 10:03:39</t>
   </si>
   <si>
+    <t>2025-09-17 08:25:04</t>
+  </si>
+  <si>
+    <t>2025-09-18 09:09:57</t>
+  </si>
+  <si>
+    <t>2025-09-19 08:51:52</t>
+  </si>
+  <si>
     <t>23/09/2025 - 10:00</t>
   </si>
   <si>
@@ -214,6 +223,60 @@
     <t>30/09/2025 - 14:00</t>
   </si>
   <si>
+    <t>30/09/2025 - 11:00</t>
+  </si>
+  <si>
+    <t>15/10/2025 - 14:00</t>
+  </si>
+  <si>
+    <t>09/10/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>29/09/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>02/10/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>02/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>02/10/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>01/10/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>30/09/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>01/10/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>29/09/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>16/10/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>07/10/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>03/10/2025 - 13:30</t>
+  </si>
+  <si>
+    <t>03/10/2025 - 13:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>02/10/2025 - 09:30</t>
+  </si>
+  <si>
+    <t>30/09/2025 - 08:40</t>
+  </si>
+  <si>
     <t>925458</t>
   </si>
   <si>
@@ -514,6 +577,129 @@
     <t>929010</t>
   </si>
   <si>
+    <t>80025</t>
+  </si>
+  <si>
+    <t>925309</t>
+  </si>
+  <si>
+    <t>930452</t>
+  </si>
+  <si>
+    <t>929615</t>
+  </si>
+  <si>
+    <t>985909</t>
+  </si>
+  <si>
+    <t>925543</t>
+  </si>
+  <si>
+    <t>154069</t>
+  </si>
+  <si>
+    <t>987635</t>
+  </si>
+  <si>
+    <t>980489</t>
+  </si>
+  <si>
+    <t>389444</t>
+  </si>
+  <si>
+    <t>929472</t>
+  </si>
+  <si>
+    <t>928529</t>
+  </si>
+  <si>
+    <t>925989</t>
+  </si>
+  <si>
+    <t>980431</t>
+  </si>
+  <si>
+    <t>926092</t>
+  </si>
+  <si>
+    <t>389097</t>
+  </si>
+  <si>
+    <t>102158</t>
+  </si>
+  <si>
+    <t>926724</t>
+  </si>
+  <si>
+    <t>987805</t>
+  </si>
+  <si>
+    <t>983431</t>
+  </si>
+  <si>
+    <t>160227</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>927928</t>
+  </si>
+  <si>
+    <t>926607</t>
+  </si>
+  <si>
+    <t>986475</t>
+  </si>
+  <si>
+    <t>987861</t>
+  </si>
+  <si>
+    <t>450432</t>
+  </si>
+  <si>
+    <t>985867</t>
+  </si>
+  <si>
+    <t>160194</t>
+  </si>
+  <si>
+    <t>160110</t>
+  </si>
+  <si>
+    <t>925302</t>
+  </si>
+  <si>
+    <t>453902</t>
+  </si>
+  <si>
+    <t>926590</t>
+  </si>
+  <si>
+    <t>986205</t>
+  </si>
+  <si>
+    <t>928048</t>
+  </si>
+  <si>
+    <t>50001</t>
+  </si>
+  <si>
+    <t>986637</t>
+  </si>
+  <si>
+    <t>180194</t>
+  </si>
+  <si>
+    <t>180322</t>
+  </si>
+  <si>
+    <t>930180</t>
+  </si>
+  <si>
+    <t>928285</t>
+  </si>
+  <si>
     <t>900132025</t>
   </si>
   <si>
@@ -709,6 +895,42 @@
     <t>900302025</t>
   </si>
   <si>
+    <t>900722025</t>
+  </si>
+  <si>
+    <t>901112025</t>
+  </si>
+  <si>
+    <t>901042025</t>
+  </si>
+  <si>
+    <t>900042025</t>
+  </si>
+  <si>
+    <t>901242025</t>
+  </si>
+  <si>
+    <t>901662025</t>
+  </si>
+  <si>
+    <t>900402025</t>
+  </si>
+  <si>
+    <t>900602025</t>
+  </si>
+  <si>
+    <t>900752025</t>
+  </si>
+  <si>
+    <t>900892025</t>
+  </si>
+  <si>
+    <t>905582025</t>
+  </si>
+  <si>
+    <t>901052025</t>
+  </si>
+  <si>
     <t>Tribunal de Contas do Estado de Roraima</t>
   </si>
   <si>
@@ -1009,6 +1231,129 @@
     <t>CÂMARA MUNICIPAL DE PONTE NOVA/MG</t>
   </si>
   <si>
+    <t>PODER JUDICIÁRIO / Tribunal Superior do Trabalho / 23ª Região/MT</t>
+  </si>
+  <si>
+    <t>Tribunal de Contas do Estado do Maranhão</t>
+  </si>
+  <si>
+    <t>SERVIÇO DE APOIO AS MICRO E PEQUENAS EMPRESAS DO ESTADO DE SAO PAULO</t>
+  </si>
+  <si>
+    <t>SECRETARIA MUNICIPAL DE PROMOÇAO SOCIAL COMBATE A POBREZA,ESPORTE E LAZER</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SAQUAREMA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO RIO GRANDE DO NORTE / FUNDAÇÃO UNIVERSIDADE DO ESTADO DO RN</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Fundação Universidade Federal de São João Del-Rei - UFSJ</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE JANDAIA DO SUL</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARÁ / PREFEITURA MUNICIPAL DE MELGAÇO PA</t>
+  </si>
+  <si>
+    <t>CONSELHO REGIONAL DE FAMARCIA DO ESTADO DO ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>COMITE PARAOLIMPICO BRASILEIRO/SP</t>
+  </si>
+  <si>
+    <t>CAMARA MUNICIPAL DE DIAMANTINO</t>
+  </si>
+  <si>
+    <t>Defensoria Pública/PA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE BONITO/PA</t>
+  </si>
+  <si>
+    <t>Procuradoria Gerl de Justiça/PI</t>
+  </si>
+  <si>
+    <t>Conselho Regional de Engenharia e Agronomia - CREA-PE</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-FACULDADE ZOOTEC.E ENG. DE ALIMENTOS -USP</t>
+  </si>
+  <si>
+    <t>Conselho Reg. Fonoaudiologia Da 5ª Região</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE REALEZA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CANDIBA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 5ª Região Militar / 15ªBrigada de Infantaria Mecanizada / 3ªCIA/34ºBtalhão de Infantaria Motorizado</t>
+  </si>
+  <si>
+    <t>PODER LEGISLATIVO / Senado Federal</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE BOA VISTA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE MINAS GERAIS / prefeitura municipal de governador valadares</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE GUARUJÁ/SP</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE SANTO ANTONIO DO CAIUA</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE ESTADO DE EDUCACAO DO DISTRITO FEDERAL</t>
+  </si>
+  <si>
+    <t>Governo do Estado do Rio de Janeiro / Município de Nova Friburgo</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Nordeste / 7ª Região Militar/7ª Divisão de Exército</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Departamento de Educação e Cultura do Exército / Diretoria de Ensino Preparatório e Assistêncial / Colégio Militar de Juiz de Fora</t>
+  </si>
+  <si>
+    <t>Governo do Estado da Paraíba / Secretaria de Estado da Administração da Paraíba</t>
+  </si>
+  <si>
+    <t>MINISTERIO PUBLICO DO ESTADO DO PARANA</t>
+  </si>
+  <si>
+    <t>conselho regional de educação física 11a região - mato grosso do sul</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE BARRA BONITA</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO DE ASSISTÊNCIA SOCIAL DE CAXIAS DO SUL/RS</t>
+  </si>
+  <si>
+    <t>PODER JUDICIÁRIO / Superior Tribunal de Justiça</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE LENÇOIS PAULISTA</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-CTO. DE INTELIGENCIA DA POLICIA MILITAR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-CENTRO ODONTOLOGICO - CODONT</t>
+  </si>
+  <si>
+    <t>CÂMARA MUNICIPAL DE DOMINGOS MARTINS/ES</t>
+  </si>
+  <si>
+    <t>FUNDAÇÃO ESTATAL DE ATENÇÃO A SAÚDE/PR</t>
+  </si>
+  <si>
     <t>U_925458_E_900132025_23-09-2025_10h00m.zip</t>
   </si>
   <si>
@@ -1316,6 +1661,141 @@
   </si>
   <si>
     <t>U_929010_E_900062025_30-09-2025_14h00m.zip</t>
+  </si>
+  <si>
+    <t>U_80025_E_900162025_30-09-2025_11h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925309_E_900072025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930452_E_900812025_01-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929615_E_900032025_01-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985909_E_900722025_30-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925543_E_900342025_15-10-2025_14h00m.zip</t>
+  </si>
+  <si>
+    <t>U_154069_E_900352025_26-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_987635_E_900622025_09-10-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_980489_E_900132025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_389444_E_900082025_26-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929472_E_901112025_29-09-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_928529_E_900012025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_925989_E_900092025_30-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_980431_E_900222025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926092_E_900222025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_389097_E_900062025_02-10-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_102158_E_900352025_02-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926724_E_900012025_02-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987805_E_900522025_01-10-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_983431_E_900252025_29-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160227_E_900022025_30-09-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_20001_E_901042025_01-10-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_927928_E_900042025_30-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926607_E_900812025_03-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986475_E_900542025_29-09-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_987861_E_900362025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_450432_E_900292025_23-09-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985867_E_901042025_16-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985867_E_901242025_07-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160194_E_900112025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160110_E_900072025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926605_E_900132025_03-10-2025_13h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925302_E_901662025_01-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_453902_E_900402025_03-10-2025_13h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926590_E_900012025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986205_E_900602025_30-09-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_928048_E_900332025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_50001_E_900752025_01-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_986637_E_900892025_01-10-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_180194_E_900122025_30-09-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180322_E_900752025_01-10-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_158125_E_905582025_02-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_20001_E_901052025_02-10-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_930180_E_900732025_03-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_928285_E_901112025_30-09-2025_08h40m.zip</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1707,19 +2187,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1727,19 +2207,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1747,19 +2227,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1767,19 +2247,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1787,19 +2267,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1807,19 +2287,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1827,19 +2307,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>337</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1847,19 +2327,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>338</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1867,19 +2347,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1887,19 +2367,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>340</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1907,19 +2387,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1927,19 +2407,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1947,19 +2427,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>343</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1967,19 +2447,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1987,19 +2467,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2007,19 +2487,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="F17" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2027,19 +2507,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="F18" t="s">
-        <v>347</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2047,19 +2527,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2067,19 +2547,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>349</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2087,19 +2567,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="F21" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2107,19 +2587,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2127,19 +2607,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="F23" t="s">
-        <v>352</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2147,19 +2627,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="F24" t="s">
-        <v>353</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2167,19 +2647,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2187,19 +2667,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2207,19 +2687,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="F27" t="s">
-        <v>356</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2227,19 +2707,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2247,19 +2727,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>258</v>
+        <v>332</v>
       </c>
       <c r="F29" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2267,19 +2747,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E30" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
       <c r="F30" t="s">
-        <v>359</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2287,19 +2767,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="F31" t="s">
-        <v>360</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2307,19 +2787,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="F32" t="s">
-        <v>361</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2327,19 +2807,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>362</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2347,19 +2827,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="F34" t="s">
-        <v>363</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2367,19 +2847,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2387,19 +2867,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2407,19 +2887,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2427,19 +2907,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2447,19 +2927,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="F39" t="s">
-        <v>368</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2467,19 +2947,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2487,19 +2967,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="F41" t="s">
-        <v>370</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2507,19 +2987,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="F42" t="s">
-        <v>371</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2527,19 +3007,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2547,19 +3027,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2567,19 +3047,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
       <c r="F45" t="s">
-        <v>374</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2587,19 +3067,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="F46" t="s">
-        <v>375</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2607,19 +3087,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>376</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2627,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="F48" t="s">
-        <v>377</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2647,19 +3127,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="F49" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2667,19 +3147,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="F50" t="s">
-        <v>379</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2687,19 +3167,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2707,19 +3187,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F52" t="s">
-        <v>381</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2727,19 +3207,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="F53" t="s">
-        <v>382</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2747,19 +3227,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2767,19 +3247,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="F55" t="s">
-        <v>384</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2787,19 +3267,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="F56" t="s">
-        <v>385</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2807,19 +3287,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="E57" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="F57" t="s">
-        <v>386</v>
+        <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2827,19 +3307,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
-        <v>286</v>
+        <v>360</v>
       </c>
       <c r="F58" t="s">
-        <v>387</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2847,19 +3327,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="F59" t="s">
-        <v>388</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2867,19 +3347,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="F60" t="s">
-        <v>389</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2887,19 +3367,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2907,19 +3387,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="F62" t="s">
-        <v>391</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2927,19 +3407,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="F63" t="s">
-        <v>392</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2947,19 +3427,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="F64" t="s">
-        <v>393</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2967,19 +3447,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2987,19 +3467,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="E66" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="F66" t="s">
-        <v>395</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3007,19 +3487,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="F67" t="s">
-        <v>396</v>
+        <v>511</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3027,19 +3507,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>370</v>
       </c>
       <c r="F68" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3047,19 +3527,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>297</v>
+        <v>371</v>
       </c>
       <c r="F69" t="s">
-        <v>398</v>
+        <v>513</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3067,19 +3547,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>372</v>
       </c>
       <c r="F70" t="s">
-        <v>399</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3087,19 +3567,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="F71" t="s">
-        <v>400</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3107,19 +3587,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="F72" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3127,19 +3607,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
       <c r="F73" t="s">
-        <v>402</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3147,19 +3627,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="F74" t="s">
-        <v>403</v>
+        <v>518</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3167,19 +3647,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E75" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="F75" t="s">
-        <v>404</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3187,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="F76" t="s">
-        <v>405</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3207,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="F77" t="s">
-        <v>406</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3227,19 +3707,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="F78" t="s">
-        <v>407</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3247,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="F79" t="s">
-        <v>408</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3267,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>265</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="F80" t="s">
-        <v>409</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3287,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>383</v>
       </c>
       <c r="F81" t="s">
-        <v>410</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3307,19 +3787,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>310</v>
+        <v>384</v>
       </c>
       <c r="F82" t="s">
-        <v>411</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3327,19 +3807,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="E83" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="F83" t="s">
-        <v>412</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3347,19 +3827,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E84" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="F84" t="s">
-        <v>413</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3367,19 +3847,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="F85" t="s">
-        <v>414</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3387,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="F86" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3407,19 +3887,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="F87" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3427,19 +3907,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="F88" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3447,19 +3927,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="F89" t="s">
-        <v>418</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3467,19 +3947,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="F90" t="s">
-        <v>419</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3487,19 +3967,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D91" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="E91" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="F91" t="s">
-        <v>420</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3507,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="F92" t="s">
-        <v>421</v>
+        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3527,19 +4007,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="E93" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="F93" t="s">
-        <v>422</v>
+        <v>537</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3547,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="F94" t="s">
-        <v>423</v>
+        <v>538</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3567,19 +4047,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="E95" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="F95" t="s">
-        <v>424</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3587,19 +4067,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D96" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="F96" t="s">
-        <v>425</v>
+        <v>540</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3607,19 +4087,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="F97" t="s">
-        <v>426</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3627,19 +4107,19 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="E98" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="F98" t="s">
-        <v>427</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3647,19 +4127,19 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="E99" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="F99" t="s">
-        <v>428</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3667,19 +4147,19 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="E100" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="F100" t="s">
-        <v>429</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3687,19 +4167,19 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="E101" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>430</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3707,19 +4187,19 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="F102" t="s">
-        <v>431</v>
+        <v>546</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3727,19 +4207,19 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C103" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="E103" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="F103" t="s">
-        <v>432</v>
+        <v>547</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3747,19 +4227,919 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D104" t="s">
+        <v>279</v>
+      </c>
+      <c r="E104" t="s">
+        <v>404</v>
+      </c>
+      <c r="F104" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" t="s">
+        <v>405</v>
+      </c>
+      <c r="F105" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" t="s">
+        <v>230</v>
+      </c>
+      <c r="E106" t="s">
+        <v>406</v>
+      </c>
+      <c r="F106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" t="s">
+        <v>248</v>
+      </c>
+      <c r="E107" t="s">
+        <v>407</v>
+      </c>
+      <c r="F107" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" t="s">
+        <v>408</v>
+      </c>
+      <c r="F108" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>293</v>
+      </c>
+      <c r="E109" t="s">
+        <v>409</v>
+      </c>
+      <c r="F109" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" t="s">
+        <v>192</v>
+      </c>
+      <c r="D110" t="s">
+        <v>275</v>
+      </c>
+      <c r="E110" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>193</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" t="s">
+        <v>411</v>
+      </c>
+      <c r="F111" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" t="s">
+        <v>194</v>
+      </c>
+      <c r="D112" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" t="s">
+        <v>412</v>
+      </c>
+      <c r="F112" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" t="s">
+        <v>413</v>
+      </c>
+      <c r="F113" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s">
+        <v>245</v>
+      </c>
+      <c r="E114" t="s">
+        <v>414</v>
+      </c>
+      <c r="F114" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" t="s">
+        <v>294</v>
+      </c>
+      <c r="E115" t="s">
+        <v>415</v>
+      </c>
+      <c r="F115" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>198</v>
+      </c>
+      <c r="D116" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" t="s">
+        <v>416</v>
+      </c>
+      <c r="F116" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" t="s">
+        <v>417</v>
+      </c>
+      <c r="F117" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" t="s">
+        <v>258</v>
+      </c>
+      <c r="E118" t="s">
+        <v>418</v>
+      </c>
+      <c r="F118" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" t="s">
+        <v>258</v>
+      </c>
+      <c r="E119" t="s">
+        <v>419</v>
+      </c>
+      <c r="F119" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" t="s">
+        <v>420</v>
+      </c>
+      <c r="F120" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" t="s">
+        <v>203</v>
+      </c>
+      <c r="D121" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121" t="s">
+        <v>421</v>
+      </c>
+      <c r="F121" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" t="s">
+        <v>204</v>
+      </c>
+      <c r="D122" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" t="s">
+        <v>422</v>
+      </c>
+      <c r="F122" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" t="s">
+        <v>291</v>
+      </c>
+      <c r="E123" t="s">
+        <v>423</v>
+      </c>
+      <c r="F123" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" t="s">
+        <v>244</v>
+      </c>
+      <c r="E124" t="s">
+        <v>424</v>
+      </c>
+      <c r="F124" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125" t="s">
+        <v>290</v>
+      </c>
+      <c r="E125" t="s">
+        <v>425</v>
+      </c>
+      <c r="F125" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" t="s">
+        <v>208</v>
+      </c>
+      <c r="D126" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" t="s">
+        <v>426</v>
+      </c>
+      <c r="F126" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>56</v>
+      </c>
+      <c r="C127" t="s">
+        <v>209</v>
+      </c>
+      <c r="D127" t="s">
+        <v>296</v>
+      </c>
+      <c r="E127" t="s">
+        <v>427</v>
+      </c>
+      <c r="F127" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" t="s">
+        <v>428</v>
+      </c>
+      <c r="F128" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" t="s">
+        <v>211</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129" t="s">
+        <v>429</v>
+      </c>
+      <c r="F129" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" t="s">
+        <v>430</v>
+      </c>
+      <c r="F130" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>213</v>
+      </c>
+      <c r="D131" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" t="s">
+        <v>431</v>
+      </c>
+      <c r="F131" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>80</v>
+      </c>
+      <c r="C132" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" t="s">
+        <v>432</v>
+      </c>
+      <c r="F132" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>297</v>
+      </c>
+      <c r="E133" t="s">
+        <v>432</v>
+      </c>
+      <c r="F133" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" t="s">
+        <v>237</v>
+      </c>
+      <c r="E134" t="s">
+        <v>433</v>
+      </c>
+      <c r="F134" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" t="s">
+        <v>434</v>
+      </c>
+      <c r="F135" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" t="s">
+        <v>228</v>
+      </c>
+      <c r="E136" t="s">
+        <v>315</v>
+      </c>
+      <c r="F136" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" t="s">
         <v>217</v>
       </c>
-      <c r="E104" t="s">
-        <v>330</v>
-      </c>
-      <c r="F104" t="s">
-        <v>433</v>
+      <c r="D137" t="s">
+        <v>298</v>
+      </c>
+      <c r="E137" t="s">
+        <v>435</v>
+      </c>
+      <c r="F137" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" t="s">
+        <v>218</v>
+      </c>
+      <c r="D138" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138" t="s">
+        <v>436</v>
+      </c>
+      <c r="F138" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" t="s">
+        <v>219</v>
+      </c>
+      <c r="D139" t="s">
+        <v>236</v>
+      </c>
+      <c r="E139" t="s">
+        <v>437</v>
+      </c>
+      <c r="F139" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" t="s">
+        <v>300</v>
+      </c>
+      <c r="E140" t="s">
+        <v>438</v>
+      </c>
+      <c r="F140" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" t="s">
+        <v>221</v>
+      </c>
+      <c r="D141" t="s">
+        <v>247</v>
+      </c>
+      <c r="E141" t="s">
+        <v>439</v>
+      </c>
+      <c r="F141" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>222</v>
+      </c>
+      <c r="D142" t="s">
+        <v>301</v>
+      </c>
+      <c r="E142" t="s">
+        <v>440</v>
+      </c>
+      <c r="F142" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" t="s">
+        <v>441</v>
+      </c>
+      <c r="F143" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" t="s">
+        <v>224</v>
+      </c>
+      <c r="D144" t="s">
+        <v>238</v>
+      </c>
+      <c r="E144" t="s">
+        <v>442</v>
+      </c>
+      <c r="F144" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" t="s">
+        <v>301</v>
+      </c>
+      <c r="E145" t="s">
+        <v>443</v>
+      </c>
+      <c r="F145" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" t="s">
+        <v>303</v>
+      </c>
+      <c r="E146" t="s">
+        <v>333</v>
+      </c>
+      <c r="F146" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" t="s">
+        <v>304</v>
+      </c>
+      <c r="E147" t="s">
+        <v>426</v>
+      </c>
+      <c r="F147" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" t="s">
+        <v>257</v>
+      </c>
+      <c r="E148" t="s">
+        <v>444</v>
+      </c>
+      <c r="F148" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" t="s">
+        <v>227</v>
+      </c>
+      <c r="D149" t="s">
+        <v>294</v>
+      </c>
+      <c r="E149" t="s">
+        <v>445</v>
+      </c>
+      <c r="F149" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="638">
   <si>
     <t>Timestamp</t>
   </si>
@@ -55,6 +55,12 @@
     <t>2025-09-19 08:51:52</t>
   </si>
   <si>
+    <t>2025-09-22 08:54:00</t>
+  </si>
+  <si>
+    <t>2025-09-23 11:15:59</t>
+  </si>
+  <si>
     <t>23/09/2025 - 10:00</t>
   </si>
   <si>
@@ -277,6 +283,21 @@
     <t>30/09/2025 - 08:40</t>
   </si>
   <si>
+    <t>02/10/2025 - 09:45</t>
+  </si>
+  <si>
+    <t>08/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>02/10/2025 - 11:00</t>
+  </si>
+  <si>
+    <t>06/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>03/10/2025 - 10:00</t>
+  </si>
+  <si>
     <t>925458</t>
   </si>
   <si>
@@ -700,6 +721,39 @@
     <t>928285</t>
   </si>
   <si>
+    <t>158122</t>
+  </si>
+  <si>
+    <t>160440</t>
+  </si>
+  <si>
+    <t>986563</t>
+  </si>
+  <si>
+    <t>154044</t>
+  </si>
+  <si>
+    <t>380222</t>
+  </si>
+  <si>
+    <t>154054</t>
+  </si>
+  <si>
+    <t>201201</t>
+  </si>
+  <si>
+    <t>926287</t>
+  </si>
+  <si>
+    <t>926768</t>
+  </si>
+  <si>
+    <t>160380</t>
+  </si>
+  <si>
+    <t>987493</t>
+  </si>
+  <si>
     <t>900132025</t>
   </si>
   <si>
@@ -931,6 +985,18 @@
     <t>901052025</t>
   </si>
   <si>
+    <t>900672025</t>
+  </si>
+  <si>
+    <t>900442025</t>
+  </si>
+  <si>
+    <t>902272025</t>
+  </si>
+  <si>
+    <t>901152025</t>
+  </si>
+  <si>
     <t>Tribunal de Contas do Estado de Roraima</t>
   </si>
   <si>
@@ -1354,6 +1420,39 @@
     <t>FUNDAÇÃO ESTATAL DE ATENÇÃO A SAÚDE/PR</t>
   </si>
   <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Secretaria Executiva / Subsecretaria de Planejamento e Orçamento / Instituto Federal de Educação, Ciência e Tecnologia de Minas Gerais</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 5ª Região Militar / 14ªBrigada de Infantaria Motorizada / 23ºBatalhão de Infantaria</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Itaquaquecetuba/SP</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Fundação Universidade Federal do Acre</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE ADMINISTRACAO PENITENCIARIA / ESP-CTO.DETEN.PROV.´AEVP RENATO G RODRIG´ AME</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA EDUCAÇÃO / Fundação Universidade Federal do Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA FAZENDA E PLANEJAMENTO / ESP-FUND.SISTEMA ESTADUAL ANAL.DADOS-SEADE</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE MINAS GERAIS / Departamento Municipal de Agua e Esgoto</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO RIO GRANDE DO SUL / CAMARA MUNICIPAL DE VEREADORES DE BAGÉ</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / Comando Militar do Sul / 6ªDivisão de Exército / 8ªBrigada de Infantaria Motorizada</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CASCAVEL</t>
+  </si>
+  <si>
     <t>U_925458_E_900132025_23-09-2025_10h00m.zip</t>
   </si>
   <si>
@@ -1796,6 +1895,39 @@
   </si>
   <si>
     <t>U_928285_E_901112025_30-09-2025_08h40m.zip</t>
+  </si>
+  <si>
+    <t>U_158122_E_900222025_02-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160440_E_900142025_02-10-2025_09h45m.zip</t>
+  </si>
+  <si>
+    <t>U_986563_E_900672025_08-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_154044_E_900302025_02-10-2025_11h00m.zip</t>
+  </si>
+  <si>
+    <t>U_380222_E_900092025_03-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_154054_E_900442025_02-10-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_201201_E_900202025_02-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926287_E_902272025_06-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_926768_E_900042025_02-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160380_E_900062025_03-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987493_E_901152025_06-10-2025_09h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2187,19 +2319,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2207,19 +2339,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2227,19 +2359,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2247,19 +2379,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="F5" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2267,19 +2399,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2287,19 +2419,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2307,19 +2439,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2327,19 +2459,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2347,19 +2479,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2367,19 +2499,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2387,19 +2519,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2407,19 +2539,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2427,19 +2559,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2447,19 +2579,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2467,19 +2599,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2487,19 +2619,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2507,19 +2639,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2527,19 +2659,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E19" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2547,19 +2679,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="F20" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2567,19 +2699,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2587,19 +2719,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="F22" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2607,19 +2739,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2627,19 +2759,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2647,19 +2779,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="F25" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2667,19 +2799,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2687,19 +2819,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F27" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2707,19 +2839,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="F28" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2727,19 +2859,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="E29" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="F29" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2747,19 +2879,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F30" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2767,19 +2899,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E31" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="F31" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2787,19 +2919,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F32" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2807,19 +2939,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E33" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="F33" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2827,19 +2959,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E34" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="F34" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2847,19 +2979,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="F35" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2867,19 +2999,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="F36" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2887,19 +3019,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E37" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F37" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2907,19 +3039,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="F38" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2927,19 +3059,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="F39" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2947,19 +3079,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="F40" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2967,19 +3099,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2987,19 +3119,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="F42" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3007,19 +3139,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3027,19 +3159,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F44" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3047,19 +3179,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E45" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="F45" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3067,19 +3199,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F46" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3087,19 +3219,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="F47" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3107,19 +3239,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F48" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3127,19 +3259,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E49" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F49" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3147,19 +3279,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="F50" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3167,19 +3299,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F51" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3187,19 +3319,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="F52" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3207,19 +3339,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F53" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3227,19 +3359,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="F54" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3247,19 +3379,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E55" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F55" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3267,19 +3399,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="F56" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3287,19 +3419,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="F57" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3307,19 +3439,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3327,19 +3459,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="F59" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3347,19 +3479,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E60" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="F60" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3367,19 +3499,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3387,19 +3519,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E62" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3407,19 +3539,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3427,19 +3559,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F64" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3447,19 +3579,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E65" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="F65" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3467,19 +3599,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E66" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="F66" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3487,19 +3619,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F67" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3507,19 +3639,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E68" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F68" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3527,19 +3659,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E69" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="F69" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3547,19 +3679,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="E70" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F70" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3567,19 +3699,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F71" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3587,19 +3719,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E72" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F72" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3607,19 +3739,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F73" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3627,19 +3759,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E74" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="F74" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3647,19 +3779,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="F75" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3667,19 +3799,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F76" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3687,19 +3819,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E77" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="F77" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3707,19 +3839,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="F78" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3727,19 +3859,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E79" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F79" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3747,19 +3879,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E80" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="F80" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3767,19 +3899,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E81" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="F81" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3787,19 +3919,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F82" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3807,19 +3939,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E83" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="F83" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3827,19 +3959,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E84" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="F84" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3847,19 +3979,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="F85" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3867,19 +3999,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="E86" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="F86" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3887,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="E87" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="F87" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3907,19 +4039,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E88" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="F88" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3927,19 +4059,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="E89" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="F89" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3947,19 +4079,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="F90" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3967,19 +4099,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E91" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="F91" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3987,19 +4119,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D92" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E92" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4007,19 +4139,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D93" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E93" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="F93" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4027,19 +4159,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="F94" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4047,19 +4179,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F95" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4067,19 +4199,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="F96" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4087,19 +4219,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E97" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="F97" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4107,19 +4239,19 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F98" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4127,19 +4259,19 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E99" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F99" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4147,19 +4279,19 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="F100" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4167,19 +4299,19 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D101" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="F101" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4187,19 +4319,19 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F102" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4207,19 +4339,19 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D103" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="F103" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4227,19 +4359,19 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E104" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="F104" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4247,19 +4379,19 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="E105" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F105" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4267,19 +4399,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D106" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E106" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="F106" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4287,19 +4419,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D107" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E107" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="F107" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4307,19 +4439,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D108" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E108" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="F108" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4327,19 +4459,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D109" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="E109" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="F109" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4347,19 +4479,19 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D110" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E110" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="F110" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4367,19 +4499,19 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D111" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="F111" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4387,19 +4519,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C112" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F112" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4407,19 +4539,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D113" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E113" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="F113" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4427,19 +4559,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="F114" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4447,19 +4579,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D115" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E115" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="F115" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4467,19 +4599,19 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D116" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E116" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F116" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4487,19 +4619,19 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E117" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="F117" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4507,19 +4639,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D118" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="F118" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4527,19 +4659,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F119" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4547,19 +4679,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C120" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D120" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="E120" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="F120" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4567,19 +4699,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D121" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E121" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="F121" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4587,19 +4719,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D122" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E122" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="F122" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4607,19 +4739,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="E123" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="F123" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4627,19 +4759,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D124" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E124" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="F124" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4647,19 +4779,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D125" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E125" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4667,19 +4799,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D126" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E126" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="F126" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4687,19 +4819,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E127" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="F127" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4707,19 +4839,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D128" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E128" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="F128" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4727,19 +4859,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D129" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E129" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="F129" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4747,19 +4879,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D130" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E130" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="F130" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4767,19 +4899,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E131" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="F131" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4787,19 +4919,19 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D132" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="E132" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="F132" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4807,19 +4939,19 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E133" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="F133" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4827,19 +4959,19 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C134" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E134" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="F134" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4847,19 +4979,19 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D135" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E135" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="F135" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4867,19 +4999,19 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E136" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="F136" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4887,19 +5019,19 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C137" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D137" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E137" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="F137" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4907,19 +5039,19 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D138" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E138" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="F138" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4927,19 +5059,19 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E139" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="F139" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4947,19 +5079,19 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C140" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D140" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E140" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="F140" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4967,19 +5099,19 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D141" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E141" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="F141" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4987,19 +5119,19 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D142" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E142" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="F142" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5007,19 +5139,19 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D143" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E143" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="F143" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5027,19 +5159,19 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C144" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D144" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E144" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="F144" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5047,19 +5179,19 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C145" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D145" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E145" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="F145" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5067,19 +5199,19 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C146" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D146" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E146" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F146" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5087,19 +5219,19 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C147" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E147" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="F147" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5107,19 +5239,19 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D148" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E148" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="F148" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5127,19 +5259,239 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C149" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D149" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E149" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="F149" t="s">
-        <v>593</v>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150" t="s">
+        <v>235</v>
+      </c>
+      <c r="D150" t="s">
+        <v>276</v>
+      </c>
+      <c r="E150" t="s">
+        <v>468</v>
+      </c>
+      <c r="F150" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" t="s">
+        <v>274</v>
+      </c>
+      <c r="E151" t="s">
+        <v>469</v>
+      </c>
+      <c r="F151" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" t="s">
+        <v>237</v>
+      </c>
+      <c r="D152" t="s">
+        <v>323</v>
+      </c>
+      <c r="E152" t="s">
+        <v>470</v>
+      </c>
+      <c r="F152" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>91</v>
+      </c>
+      <c r="C153" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" t="s">
+        <v>310</v>
+      </c>
+      <c r="E153" t="s">
+        <v>471</v>
+      </c>
+      <c r="F153" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" t="s">
+        <v>280</v>
+      </c>
+      <c r="E154" t="s">
+        <v>472</v>
+      </c>
+      <c r="F154" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" t="s">
+        <v>240</v>
+      </c>
+      <c r="D155" t="s">
+        <v>324</v>
+      </c>
+      <c r="E155" t="s">
+        <v>473</v>
+      </c>
+      <c r="F155" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156" t="s">
+        <v>264</v>
+      </c>
+      <c r="E156" t="s">
+        <v>474</v>
+      </c>
+      <c r="F156" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" t="s">
+        <v>242</v>
+      </c>
+      <c r="D157" t="s">
+        <v>325</v>
+      </c>
+      <c r="E157" t="s">
+        <v>475</v>
+      </c>
+      <c r="F157" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>76</v>
+      </c>
+      <c r="C158" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" t="s">
+        <v>314</v>
+      </c>
+      <c r="E158" t="s">
+        <v>476</v>
+      </c>
+      <c r="F158" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159" t="s">
+        <v>244</v>
+      </c>
+      <c r="D159" t="s">
+        <v>297</v>
+      </c>
+      <c r="E159" t="s">
+        <v>477</v>
+      </c>
+      <c r="F159" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>92</v>
+      </c>
+      <c r="C160" t="s">
+        <v>245</v>
+      </c>
+      <c r="D160" t="s">
+        <v>326</v>
+      </c>
+      <c r="E160" t="s">
+        <v>478</v>
+      </c>
+      <c r="F160" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/livro_razao.xlsx
+++ b/DOWNLOADS/livro_razao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="709">
   <si>
     <t>Timestamp</t>
   </si>
@@ -61,6 +61,15 @@
     <t>2025-09-23 11:15:59</t>
   </si>
   <si>
+    <t>2025-09-24 01:35:21</t>
+  </si>
+  <si>
+    <t>2025-09-24 09:09:21</t>
+  </si>
+  <si>
+    <t>2025-09-26 14:29:38</t>
+  </si>
+  <si>
     <t>23/09/2025 - 10:00</t>
   </si>
   <si>
@@ -298,6 +307,36 @@
     <t>03/10/2025 - 10:00</t>
   </si>
   <si>
+    <t>10/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>06/10/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>10/10/2025 - 08:30</t>
+  </si>
+  <si>
+    <t>08/10/2025 - 10:00</t>
+  </si>
+  <si>
+    <t>07/10/2025 - 10:30</t>
+  </si>
+  <si>
+    <t>08/10/2025 - 08:00</t>
+  </si>
+  <si>
+    <t>09/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>09/10/2025 - 08:15</t>
+  </si>
+  <si>
+    <t>07/10/2025 - 09:00</t>
+  </si>
+  <si>
+    <t>20/10/2025 - 09:00</t>
+  </si>
+  <si>
     <t>925458</t>
   </si>
   <si>
@@ -754,6 +793,57 @@
     <t>987493</t>
   </si>
   <si>
+    <t>929532</t>
+  </si>
+  <si>
+    <t>762300</t>
+  </si>
+  <si>
+    <t>481101</t>
+  </si>
+  <si>
+    <t>931458</t>
+  </si>
+  <si>
+    <t>160192</t>
+  </si>
+  <si>
+    <t>985499</t>
+  </si>
+  <si>
+    <t>925445</t>
+  </si>
+  <si>
+    <t>180216</t>
+  </si>
+  <si>
+    <t>926589</t>
+  </si>
+  <si>
+    <t>102335</t>
+  </si>
+  <si>
+    <t>987933</t>
+  </si>
+  <si>
+    <t>989981</t>
+  </si>
+  <si>
+    <t>930593</t>
+  </si>
+  <si>
+    <t>927861</t>
+  </si>
+  <si>
+    <t>455978</t>
+  </si>
+  <si>
+    <t>180223</t>
+  </si>
+  <si>
+    <t>135014</t>
+  </si>
+  <si>
     <t>900132025</t>
   </si>
   <si>
@@ -997,6 +1087,27 @@
     <t>901152025</t>
   </si>
   <si>
+    <t>920152025</t>
+  </si>
+  <si>
+    <t>962782024</t>
+  </si>
+  <si>
+    <t>900982025</t>
+  </si>
+  <si>
+    <t>900772025</t>
+  </si>
+  <si>
+    <t>900932025</t>
+  </si>
+  <si>
+    <t>900392025</t>
+  </si>
+  <si>
+    <t>900312025</t>
+  </si>
+  <si>
     <t>Tribunal de Contas do Estado de Roraima</t>
   </si>
   <si>
@@ -1453,6 +1564,57 @@
     <t>PREFEITURA MUNICIPAL DE CASCAVEL</t>
   </si>
   <si>
+    <t>CONSORCIO PUBLICO DE SAUDE DA MICROREGIAO DE CRATO</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / COMANDO DA MARINHA / Diretoria-Geral do Pessoal / Diretoria de Ensino</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-FUND. AMP. PESQUISA DO EST. DE SAO PAULO</t>
+  </si>
+  <si>
+    <t>CAMARA MUNICIPAL DE IMPERATRIZ/MA</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA DEFESA / Comando do Exército / BASE DE ADMINISTRAÇÃO E APOIO DA 5º DE</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE CANDOI PR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DO PARÁ / Companhia de Habitação do Estado do Pará</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-ADMINISTRACAO DA SUP</t>
+  </si>
+  <si>
+    <t>camara municipal de palmeira - pr</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DE CIENCIA TECNOL E INOVAÇÃO / ESP-UNESP-FACUL DE ENGENH. CIENCIAS-C.ROSANA</t>
+  </si>
+  <si>
+    <t>PREF.MUN.DE UBIRATA - PR</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Honório Serpa</t>
+  </si>
+  <si>
+    <t>Fundação Municipal de Saúde de Ponta Grossa/PR</t>
+  </si>
+  <si>
+    <t>FOZ PREVIDENCIA</t>
+  </si>
+  <si>
+    <t>PREFEITURA MUNICIPAL DE MANDIRITUBA - PR</t>
+  </si>
+  <si>
+    <t>GOVERNO DO ESTADO DE SÃO PAULO / ESP-SECRETARIA DA SEGURANCA PUBLICA / ESP-COM.POLIC.AREA METROP-9</t>
+  </si>
+  <si>
+    <t>MINISTÉRIO DA AGRICULTURA, PECUÁRIA E ABASTECIMENTO / Empresa Brasileira de Pesquisa Agropecuária / EMBRAPA MANDIOCA FRUT./CRUZ DAS ALMAS/BA</t>
+  </si>
+  <si>
     <t>U_925458_E_900132025_23-09-2025_10h00m.zip</t>
   </si>
   <si>
@@ -1928,6 +2090,57 @@
   </si>
   <si>
     <t>U_987493_E_901152025_06-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_929532_E_920152025_08-10-2025_09h00m.png</t>
+  </si>
+  <si>
+    <t>U_762300_E_962782024_07-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_481101_E_900112025_06-10-2025_09h30m.zip</t>
+  </si>
+  <si>
+    <t>U_931458_E_900112025_10-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_160192_E_900022025_06-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_985499_E_900982025_10-10-2025_08h30m.zip</t>
+  </si>
+  <si>
+    <t>U_925445_E_900082025_08-10-2025_10h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180216_E_900772025_07-10-2025_10h30m.zip</t>
+  </si>
+  <si>
+    <t>U_926589_E_900082025_08-10-2025_08h00m.zip</t>
+  </si>
+  <si>
+    <t>U_102335_E_900072025_09-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_987933_E_900932025_09-10-2025_08h15m.zip</t>
+  </si>
+  <si>
+    <t>U_989981_E_900202025_08-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_930593_E_900382025_07-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_927861_E_900022025_20-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_455978_E_900392025_07-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_180223_E_900312025_07-10-2025_09h00m.zip</t>
+  </si>
+  <si>
+    <t>U_135014_E_900132025_07-10-2025_09h00m.zip</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2319,19 +2532,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2339,19 +2552,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2359,19 +2572,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2379,19 +2592,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2399,19 +2612,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2419,19 +2632,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F7" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2439,19 +2652,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F8" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2459,19 +2672,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2479,19 +2692,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E10" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="F10" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2499,19 +2712,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2519,19 +2732,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="E12" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2539,19 +2752,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E13" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2559,19 +2772,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2579,19 +2792,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E15" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2599,19 +2812,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E16" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F16" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2619,19 +2832,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2639,19 +2852,19 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="E18" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="F18" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2659,19 +2872,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2679,19 +2892,19 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="F20" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2699,19 +2912,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E21" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="F21" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2719,19 +2932,19 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2739,19 +2952,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="F23" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2759,19 +2972,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2779,19 +2992,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E25" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2799,19 +3012,19 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2819,19 +3032,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="F27" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2839,19 +3052,19 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="F28" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2859,19 +3072,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="F29" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2879,19 +3092,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E30" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F30" t="s">
-        <v>507</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2899,19 +3112,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="E31" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="F31" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2919,19 +3132,19 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="E32" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F32" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2939,19 +3152,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E33" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="F33" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2959,19 +3172,19 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="F34" t="s">
-        <v>511</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2979,19 +3192,19 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E35" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="F35" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2999,19 +3212,19 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E36" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="F36" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3019,19 +3232,19 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F37" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3039,19 +3252,19 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="F38" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3059,19 +3272,19 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E39" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="F39" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3079,19 +3292,19 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E40" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="F40" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3099,19 +3312,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="E41" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="F41" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3119,19 +3332,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="F42" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3139,19 +3352,19 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F43" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3159,19 +3372,19 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F44" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3179,19 +3392,19 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E45" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="F45" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3199,19 +3412,19 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="F46" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3219,19 +3432,19 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D47" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E47" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="F47" t="s">
-        <v>524</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3239,19 +3452,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E48" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="F48" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3259,19 +3472,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E49" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="F49" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3279,19 +3492,19 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="E50" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="F50" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3299,19 +3512,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="F51" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3319,19 +3532,19 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E52" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="F52" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3339,19 +3552,19 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E53" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="F53" t="s">
-        <v>530</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3359,19 +3572,19 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="F54" t="s">
-        <v>531</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3379,19 +3592,19 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="F55" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3399,19 +3612,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="E56" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="F56" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3419,19 +3632,19 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="E57" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="F57" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3439,19 +3652,19 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E58" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="F58" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3459,19 +3672,19 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="F59" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3479,19 +3692,19 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="E60" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="F60" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3499,19 +3712,19 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="F61" t="s">
-        <v>538</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3519,19 +3732,19 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="F62" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3539,19 +3752,19 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E63" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="F63" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3559,19 +3772,19 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E64" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="F64" t="s">
-        <v>541</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3579,19 +3792,19 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="F65" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3599,19 +3812,19 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="E66" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="F66" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3619,19 +3832,19 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E67" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="F67" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3639,19 +3852,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="E68" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="F68" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3659,19 +3872,19 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E69" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="F69" t="s">
-        <v>546</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3679,19 +3892,19 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="F70" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3699,19 +3912,19 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="F71" t="s">
-        <v>548</v>
+        <v>602</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3719,19 +3932,19 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E72" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="F72" t="s">
-        <v>549</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3739,19 +3952,19 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D73" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="E73" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="F73" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3759,19 +3972,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="F74" t="s">
-        <v>551</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3779,19 +3992,19 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3799,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="E76" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="F76" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3819,19 +4032,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E77" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="F77" t="s">
-        <v>554</v>
+        <v>608</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3839,19 +4052,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E78" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="F78" t="s">
-        <v>555</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3859,19 +4072,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E79" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="F79" t="s">
-        <v>556</v>
+        <v>610</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3879,19 +4092,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E80" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="F80" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3899,19 +4112,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="F81" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3919,19 +4132,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E82" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="F82" t="s">
-        <v>559</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3939,19 +4152,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="F83" t="s">
-        <v>560</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3959,19 +4172,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="E84" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="F84" t="s">
-        <v>561</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3979,19 +4192,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="F85" t="s">
-        <v>562</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3999,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="E86" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="F86" t="s">
-        <v>563</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4019,19 +4232,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D87" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E87" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4039,19 +4252,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="F88" t="s">
-        <v>565</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4059,19 +4272,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="E89" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="F89" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4079,19 +4292,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E90" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="F90" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4099,19 +4312,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E91" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="F91" t="s">
-        <v>568</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4119,19 +4332,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E92" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F92" t="s">
-        <v>569</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4139,19 +4352,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="E93" t="s">
-        <v>416</v>
+        <v>453</v>
       </c>
       <c r="F93" t="s">
-        <v>570</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4159,19 +4372,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="E94" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="F94" t="s">
-        <v>571</v>
+        <v>625</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4179,19 +4392,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="F95" t="s">
-        <v>572</v>
+        <v>626</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4199,19 +4412,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="F96" t="s">
-        <v>573</v>
+        <v>627</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4219,19 +4432,19 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="F97" t="s">
-        <v>574</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4239,19 +4452,19 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>420</v>
+        <v>457</v>
       </c>
       <c r="F98" t="s">
-        <v>575</v>
+        <v>629</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4259,19 +4472,19 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E99" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="F99" t="s">
-        <v>576</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4279,19 +4492,19 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="F100" t="s">
-        <v>577</v>
+        <v>631</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4299,19 +4512,19 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="E101" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="F101" t="s">
-        <v>578</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4319,19 +4532,19 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="F102" t="s">
-        <v>579</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4339,19 +4552,19 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="E103" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="F103" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4359,19 +4572,19 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="F104" t="s">
-        <v>581</v>
+        <v>635</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4379,19 +4592,19 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="F105" t="s">
-        <v>582</v>
+        <v>636</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4399,19 +4612,19 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D106" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="F106" t="s">
-        <v>583</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4419,19 +4632,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="F107" t="s">
-        <v>584</v>
+        <v>638</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4439,19 +4652,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="F108" t="s">
-        <v>585</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4459,19 +4672,19 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="F109" t="s">
-        <v>586</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4479,19 +4692,19 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="F110" t="s">
-        <v>587</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4499,19 +4712,19 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="E111" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="F111" t="s">
-        <v>588</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4519,19 +4732,19 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D112" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
       <c r="F112" t="s">
-        <v>589</v>
+        <v>643</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4539,19 +4752,19 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="F113" t="s">
-        <v>590</v>
+        <v>644</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4559,19 +4772,19 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D114" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E114" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="F114" t="s">
-        <v>591</v>
+        <v>645</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4579,19 +4792,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="F115" t="s">
-        <v>592</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4599,19 +4812,19 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E116" t="s">
-        <v>438</v>
+        <v>475</v>
       </c>
       <c r="F116" t="s">
-        <v>593</v>
+        <v>647</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4619,19 +4832,19 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E117" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="F117" t="s">
-        <v>594</v>
+        <v>648</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4639,19 +4852,19 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E118" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="F118" t="s">
-        <v>595</v>
+        <v>649</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4659,19 +4872,19 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="F119" t="s">
-        <v>596</v>
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4679,19 +4892,19 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="F120" t="s">
-        <v>597</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4699,19 +4912,19 @@
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C121" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D121" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>443</v>
+        <v>480</v>
       </c>
       <c r="F121" t="s">
-        <v>598</v>
+        <v>652</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4719,19 +4932,19 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C122" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D122" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E122" t="s">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="F122" t="s">
-        <v>599</v>
+        <v>653</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4739,19 +4952,19 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D123" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="F123" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4759,19 +4972,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C124" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="E124" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="F124" t="s">
-        <v>601</v>
+        <v>655</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4779,19 +4992,19 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D125" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F125" t="s">
-        <v>602</v>
+        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4799,19 +5012,19 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C126" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D126" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F126" t="s">
-        <v>603</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4819,19 +5032,19 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C127" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="F127" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4839,19 +5052,19 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E128" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="F128" t="s">
-        <v>605</v>
+        <v>659</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4859,19 +5072,19 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="E129" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="F129" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4879,19 +5092,19 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D130" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="E130" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="F130" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4899,19 +5112,19 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E131" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="F131" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4919,19 +5132,19 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D132" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="E132" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="F132" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4939,19 +5152,19 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C133" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="E133" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="F133" t="s">
-        <v>610</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4959,19 +5172,19 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E134" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="F134" t="s">
-        <v>611</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4979,19 +5192,19 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="E135" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
       <c r="F135" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4999,19 +5212,19 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D136" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="F136" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5019,19 +5232,19 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D137" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="E137" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="F137" t="s">
-        <v>614</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5039,19 +5252,19 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D138" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E138" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="F138" t="s">
-        <v>615</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5059,19 +5272,19 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D139" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="E139" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="F139" t="s">
-        <v>616</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5079,19 +5292,19 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C140" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D140" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="E140" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="F140" t="s">
-        <v>617</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5099,19 +5312,19 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C141" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D141" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E141" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="F141" t="s">
-        <v>618</v>
+        <v>672</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5119,19 +5332,19 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D142" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="E142" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="F142" t="s">
-        <v>619</v>
+        <v>673</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5139,19 +5352,19 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D143" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="E143" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="F143" t="s">
-        <v>620</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5159,19 +5372,19 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C144" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="E144" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="F144" t="s">
-        <v>621</v>
+        <v>675</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5179,19 +5392,19 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C145" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D145" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="E145" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="F145" t="s">
-        <v>622</v>
+        <v>676</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5199,19 +5412,19 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D146" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="E146" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F146" t="s">
-        <v>623</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5219,19 +5432,19 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C147" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="E147" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F147" t="s">
-        <v>624</v>
+        <v>678</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5239,19 +5452,19 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D148" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="E148" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F148" t="s">
-        <v>625</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5259,19 +5472,19 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D149" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="E149" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="F149" t="s">
-        <v>626</v>
+        <v>680</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5279,19 +5492,19 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="F150" t="s">
-        <v>627</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5299,19 +5512,19 @@
         <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D151" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="E151" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="F151" t="s">
-        <v>628</v>
+        <v>682</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5319,19 +5532,19 @@
         <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="E152" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="F152" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5339,19 +5552,19 @@
         <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D153" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="E153" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="F153" t="s">
-        <v>630</v>
+        <v>684</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5359,19 +5572,19 @@
         <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D154" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="E154" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="F154" t="s">
-        <v>631</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5379,19 +5592,19 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="E155" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="F155" t="s">
-        <v>632</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5399,19 +5612,19 @@
         <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C156" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D156" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E156" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="F156" t="s">
-        <v>633</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5419,19 +5632,19 @@
         <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="E157" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="F157" t="s">
-        <v>634</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5439,19 +5652,19 @@
         <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D158" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="E158" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="F158" t="s">
-        <v>635</v>
+        <v>689</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5459,19 +5672,19 @@
         <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D159" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E159" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="F159" t="s">
-        <v>636</v>
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5479,19 +5692,359 @@
         <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C160" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D160" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="E160" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="F160" t="s">
-        <v>637</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" t="s">
+        <v>259</v>
+      </c>
+      <c r="D161" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" t="s">
+        <v>516</v>
+      </c>
+      <c r="F161" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" t="s">
+        <v>260</v>
+      </c>
+      <c r="D162" t="s">
+        <v>358</v>
+      </c>
+      <c r="E162" t="s">
+        <v>517</v>
+      </c>
+      <c r="F162" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
+        <v>68</v>
+      </c>
+      <c r="C163" t="s">
+        <v>261</v>
+      </c>
+      <c r="D163" t="s">
+        <v>285</v>
+      </c>
+      <c r="E163" t="s">
+        <v>518</v>
+      </c>
+      <c r="F163" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
+        <v>97</v>
+      </c>
+      <c r="C164" t="s">
+        <v>262</v>
+      </c>
+      <c r="D164" t="s">
+        <v>285</v>
+      </c>
+      <c r="E164" t="s">
+        <v>519</v>
+      </c>
+      <c r="F164" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C165" t="s">
+        <v>263</v>
+      </c>
+      <c r="D165" t="s">
+        <v>338</v>
+      </c>
+      <c r="E165" t="s">
+        <v>520</v>
+      </c>
+      <c r="F165" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>99</v>
+      </c>
+      <c r="C166" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" t="s">
+        <v>359</v>
+      </c>
+      <c r="E166" t="s">
+        <v>521</v>
+      </c>
+      <c r="F166" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>265</v>
+      </c>
+      <c r="D167" t="s">
+        <v>293</v>
+      </c>
+      <c r="E167" t="s">
+        <v>522</v>
+      </c>
+      <c r="F167" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" t="s">
+        <v>266</v>
+      </c>
+      <c r="D168" t="s">
+        <v>360</v>
+      </c>
+      <c r="E168" t="s">
+        <v>523</v>
+      </c>
+      <c r="F168" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" t="s">
+        <v>102</v>
+      </c>
+      <c r="C169" t="s">
+        <v>267</v>
+      </c>
+      <c r="D169" t="s">
+        <v>293</v>
+      </c>
+      <c r="E169" t="s">
+        <v>524</v>
+      </c>
+      <c r="F169" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>103</v>
+      </c>
+      <c r="C170" t="s">
+        <v>268</v>
+      </c>
+      <c r="D170" t="s">
+        <v>278</v>
+      </c>
+      <c r="E170" t="s">
+        <v>525</v>
+      </c>
+      <c r="F170" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>104</v>
+      </c>
+      <c r="C171" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" t="s">
+        <v>361</v>
+      </c>
+      <c r="E171" t="s">
+        <v>526</v>
+      </c>
+      <c r="F171" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" t="s">
+        <v>270</v>
+      </c>
+      <c r="D172" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" t="s">
+        <v>527</v>
+      </c>
+      <c r="F172" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>105</v>
+      </c>
+      <c r="C173" t="s">
+        <v>271</v>
+      </c>
+      <c r="D173" t="s">
+        <v>325</v>
+      </c>
+      <c r="E173" t="s">
+        <v>528</v>
+      </c>
+      <c r="F173" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" t="s">
+        <v>106</v>
+      </c>
+      <c r="C174" t="s">
+        <v>272</v>
+      </c>
+      <c r="D174" t="s">
+        <v>338</v>
+      </c>
+      <c r="E174" t="s">
+        <v>529</v>
+      </c>
+      <c r="F174" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>17</v>
+      </c>
+      <c r="B175" t="s">
+        <v>105</v>
+      </c>
+      <c r="C175" t="s">
+        <v>273</v>
+      </c>
+      <c r="D175" t="s">
+        <v>362</v>
+      </c>
+      <c r="E175" t="s">
+        <v>530</v>
+      </c>
+      <c r="F175" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" t="s">
+        <v>105</v>
+      </c>
+      <c r="C176" t="s">
+        <v>274</v>
+      </c>
+      <c r="D176" t="s">
+        <v>363</v>
+      </c>
+      <c r="E176" t="s">
+        <v>531</v>
+      </c>
+      <c r="F176" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C177" t="s">
+        <v>275</v>
+      </c>
+      <c r="D177" t="s">
+        <v>276</v>
+      </c>
+      <c r="E177" t="s">
+        <v>532</v>
+      </c>
+      <c r="F177" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
